--- a/0_data/9_evaluation/distances/a2_50/a2_50_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/a2_50/a2_50_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.90379825653798</v>
+        <v>72.32002490660024</v>
       </c>
       <c r="C2" t="n">
         <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.426064757160648</v>
+        <v>3.427384806973848</v>
       </c>
       <c r="E2" t="n">
         <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.020622665006226</v>
+        <v>6.023723536737235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008468244084682441</v>
+        <v>0.008455790784557908</v>
       </c>
       <c r="H2" t="n">
-        <v>2.397770859277708</v>
+        <v>2.388418430884184</v>
       </c>
       <c r="I2" t="n">
-        <v>5.936488169364882</v>
+        <v>124.4831880448319</v>
       </c>
       <c r="J2" t="n">
-        <v>337.4308841843089</v>
+        <v>337.398505603985</v>
       </c>
       <c r="K2" t="n">
-        <v>5.658555417185553</v>
+        <v>5.661469489414695</v>
       </c>
       <c r="L2" t="n">
-        <v>3.006102117061021</v>
+        <v>3.005105853051059</v>
       </c>
       <c r="M2" t="n">
-        <v>6.707820672478207</v>
+        <v>6.562154420921545</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[79.54794520547945, 26.615193026151932, 119.90037359900374, 47.342465753424655, 13.165628891656288, 22.998754669987548, 0.2129514321295143, 14.250311332503113, 3.25653798256538, 4.266500622665006, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.03113325031133, 26.998754669987548, 121.60398505603985, 47.21793275217933, 12.58530510585305, 22.265255292652554, 0.1917808219178082, 14.12826899128269, 3.2391033623910337, 4.247820672478206, 1.6874221668742218, 0.12702366127023662, 2.7148194271481945, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[61.74595267745953, 1.1718555417185554, 58.93648816936488, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.34620174346202, 1.4333748443337484, 57.05230386052304, 0.8194271481942715, 21.919053549190537]</t>
+          <t>[30.14819427148194, 24.541718555417187, 32.04607721046077, 26.201743462017436, 30.27895392278954, 28.179327521793276, 25.910336239103362, 32.47571606475716, 22.805728518057286, 30.58156911581569, 25.023661270236612, 29.205479452054796]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[11.865504358655043, 79.33499377334994, 131.32876712328766, 33.910336239103366, 40.57534246575342, 4.149439601494396, 8.23412204234122, 2.652552926525529, 8.450809464508094, 1.2453300124533002, 2.1295143212951433, 0.8343711083437111, 3.4221668742216687, 0.6712328767123288, 1.464508094645081, 0.49813200498132004, 3.2677459526774597, 0.2577833125778331, 0.6463262764632628, 0.1930261519302615, 0.45828144458281445, 0.09090909090909091, 0.1643835616438356, 0.0224159402241594, 0.30510585305105853, 0.024906600249066, 0.06102117061021171, 0.0136986301369863, 0.10211706102117062, 0.021170610211706103, 0.0273972602739726, 0.007471980074719801]</t>
+          <t>[7.323785803237858, 87.06226650062267, 129.3810709838107, 32.744707347447076, 40.50560398505604, 4.138231631382316, 8.23038605230386, 2.652552926525529, 8.452054794520548, 1.2465753424657535, 2.1295143212951433, 0.8356164383561644, 3.4221668742216687, 0.6712328767123288, 1.4669987546699876, 0.49688667496886674, 3.261519302615193, 0.25155666251556663, 0.6450809464508095, 0.1917808219178082, 0.45828144458281445, 0.08468244084682441, 0.1643835616438356, 0.0224159402241594, 0.3026151930261519, 0.024906600249066, 0.05977584059775841, 0.012453300124533, 0.10336239103362391, 0.021170610211706103, 0.0273972602739726, 0.007471980074719801]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.08841843088418432, 116.52552926525529, 0.0, 77.9439601494396, 0.0, 17.907845579078455, 0.0, 80.41718555417185, 0.0, 4.9202988792029885, 0.0, 4.731008717310087, 0.0, 1.86799501867995, 0.0, 17.998754669987548, 0.0, 1.273972602739726, 0.0, 1.4408468244084682, 0.0, 0.7447073474470735, 0.0, 1.5865504358655043, 0.0, 0.5491905354919053, 0.28268991282689915, 0.6052303860523038, 0.24533001245330013, 0.3125778331257783, 0.0, 3.2739726027397262, 0.0062266500622665, 0.20672478206724781, 0.0859277708592777, 0.273972602739726, 0.038605230386052306, 0.08841843088418432, 0.0012453300124533001, 1.9900373599003736, 0.0049813200498132005, 0.048567870485678705, 0.0448318804483188, 0.09713574097135741, 0.029887920298879204, 0.0273972602739726, 0.0012453300124533001, 0.12577833125778332, 0.0, 0.026151930261519303, 0.0186799501867995, 0.0448318804483188, 0.009962640099626401, 0.012453300124533, 0.0012453300124533001, 0.684931506849315, 0.0, 0.012453300124533, 0.008717310087173101, 0.0224159402241594, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.788293897882939]</t>
+          <t>[0.08468244084682441, 124.36114570361146, 0.0, 79.51681195516812, 0.0, 17.90535491905355, 0.0, 70.97509339975093, 0.0, 4.930261519302615, 0.0, 4.7272727272727275, 0.0, 1.86799501867995, 0.0, 17.993773349937733, 0.0, 1.273972602739726, 0.0, 1.4371108343711083, 0.0, 0.75093399750934, 0.0, 1.5840597758405977, 0.0, 0.5504358655043586, 0.28144458281444584, 0.6052303860523038, 0.24408468244084683, 0.3125778331257783, 0.0, 3.2752179327521795, 0.0, 0.2054794520547945, 0.0859277708592777, 0.2777085927770859, 0.039850560398505604, 0.0921544209215442, 0.0, 1.9912826899128269, 0.0, 0.049813200498132, 0.04234122042341221, 0.10087173100871731, 0.029887920298879204, 0.029887920298879204, 0.0, 0.1232876712328767, 0.0, 0.0273972602739726, 0.0224159402241594, 0.047322540473225407, 0.009962640099626401, 0.012453300124533, 0.0, 0.6874221668742216, 0.0, 0.012453300124533, 0.009962640099626401, 0.024906600249066, 0.0037359900373599006, 0.012453300124533, 0.0, 0.7820672478206725]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[15.838107098381071, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.24159402241594, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.26774595267745954, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 13.892901618929017, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19427148194271482, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.815691158156912, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 15.647571606475717, 4.443337484433375, 0.3586550435865504, 11.643835616438356, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3138231631382316], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.019925280199253, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.29514321295143214, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.564134495641344, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.386052303860523, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.14321295143213, 0.0448318804483188, 5.469489414694894], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.136986301369863, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.0759651307596513, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.773349937733499, 0.026151930261519303, 3.829389788293898]]</t>
+          <t>[[7.108343711083437, 0.8692403486924035, 5.4458281444582815, 2.1556662515566627, 0.7870485678704857, 1.4184308841843087, 0.019925280199252802, 1.887920298879203, 0.6313823163138231, 2.8617683686176836, 5.102117061021171, 1.7471980074719802], [1.0523038605230386, 5.906600249066003, 1.149439601494396, 4.331257783312578, 1.884184308841843, 0.5367372353673724, 1.1755915317559154, 0.0112079701120797, 1.211706102117061, 0.6973848069738481, 1.8032378580323787, 4.701120797011208], [6.3300124533001245, 1.3960149439601495, 7.851805728518057, 1.0062266500622665, 5.6313823163138235, 2.1257783312577834, 0.7858032378580324, 1.8854296388542964, 0.0136986301369863, 1.7447073474470736, 0.564134495641345, 2.6251556662515565], [2.232876712328767, 4.877957658779577, 1.2017434620174345, 6.325031133250311, 1.1220423412204235, 4.866749688667497, 1.7509339975093399, 0.6363636363636364, 1.1606475716064757, 0.0186799501867995, 1.290161892901619, 0.6413449564134496], [0.8194271481942715, 1.9066002490660026, 6.731008717310087, 1.3138231631382316, 7.037359900373599, 1.1232876712328768, 4.606475716064757, 2.4744707347447075, 0.5990037359900373, 1.7982565379825655, 0.0161892901618929, 1.775840597758406], [1.4383561643835616, 0.6438356164383562, 2.3935242839352426, 5.364881693648817, 1.3810709838107098, 6.8816936488169365, 0.7471980074719801, 5.2453300124533, 1.8480697384806974, 0.6089663760896638, 1.5205479452054795, 0.017434620174346202], [0.021170610211706103, 1.3549190535491906, 0.9551681195516812, 1.9414694894146949, 5.442092154420922, 0.9215442092154421, 6.273972602739726, 1.2714819427148194, 3.5541718555417185, 1.9825653798256537, 0.39352428393524286, 1.729763387297634], [1.7808219178082192, 0.0186799501867995, 1.526774595267746, 0.688667496886675, 2.8443337484433373, 6.057285180572852, 1.5703611457036115, 8.448318804483188, 0.8655043586550436, 5.74346201743462, 1.983810709838107, 0.8480697384806973], [0.5130759651307597, 1.0635118306351183, 0.012453300124533, 1.261519302615193, 0.5927770859277709, 2.019925280199253, 4.453300124533001, 1.082191780821918, 5.2640099626401, 0.7646326276463262, 3.980074719800747, 1.729763387297634], [2.712328767123288, 0.5616438356164384, 1.7783312577833126, 0.0136986301369863, 1.917808219178082, 0.7571606475716065, 2.24906600249066, 6.488169364881694, 1.0610211706102117, 6.9775840597758405, 0.9265255292652553, 5.057285180572852], [4.627646326276463, 1.6127023661270237, 0.5454545454545454, 1.2179327521793275, 0.008717310087173101, 1.3748443337484433, 0.6114570361145704, 2.032378580323786, 4.530510585305106, 1.2042341220423411, 6.306351183063512, 0.8754669987546699], [1.4346201743462017, 4.259028642590287, 2.368617683686177, 0.5105853051058531, 1.5342465753424657, 0.019925280199252802, 1.6002490660024906, 0.9115815691158157, 1.9975093399750934, 6.070983810709838, 1.049813200498132, 7.364881693648817]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.0, 0.033623910336239106, 0.0, 0.014943960149439602, 0.0, 0.0, 0.0, 0.028642590286425903, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 61.32129514321295, 0.0, 18.297633872976338, 0.0, 5.858032378580324, 0.0, 20.7359900373599, 0.0, 1.5877957658779576, 0.0, 0.8605230386052304, 0.0, 0.6276463262764632, 0.0, 4.296388542963886, 0.0, 0.31008717310087175, 0.0, 0.1855541718555417, 0.0, 0.16687422166874222, 0.0, 0.26650062266500624, 0.0, 0.09464508094645081, 0.0410958904109589, 0.0859277708592777, 0.0647571606475716, 0.06351183063511831, 0.0, 0.7945205479452054, 0.0, 0.0410958904109589, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.031133250311332503, 0.0, 0.47696139476961397, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.16189290161892902, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0684931506849315], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0049813200498132005, 17.854296388542963, 0.0, 28.36861768368618, 0.0, 3.5491905354919053, 0.0, 15.452054794520548, 0.0, 1.2665006226650062, 0.0, 1.7447073474470736, 0.0, 0.5292652552926526, 0.0, 4.665006226650062, 0.0, 0.41594022415940224, 0.0, 0.4931506849315068, 0.0, 0.21668742216687423, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.9202988792029888, 0.0, 0.057285180572851806, 0.028642590286425903, 0.1133250311332503, 0.0062266500622665, 0.008717310087173101, 0.0, 0.6313823163138231, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.014943960149439602, 0.0, 0.0, 0.0, 0.1656288916562889, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.20174346201743462], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 5.056039850560398, 0.0, 3.5666251556662516, 0.0, 2.4259028642590286, 0.0, 3.6587795765877957, 0.0, 0.3287671232876712, 0.0, 0.30884184308841844, 0.0, 0.11830635118306351, 0.0, 1.240348692403487, 0.0, 0.12453300124533001, 0.0, 0.1133250311332503, 0.0, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.18057285180572852, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.15940224159402241, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0448318804483188, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06973848069738481], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 20.02988792029888, 0.0, 15.130759651307596, 0.0, 3.5056039850560397, 0.0, 30.001245330012452, 0.0, 1.024906600249066, 0.0, 1.1818181818181819, 0.0, 0.40099626400996263, 0.0, 4.596513075965131, 0.0, 0.3150684931506849, 0.0, 0.50186799501868, 0.0, 0.19551681195516812, 0.0, 0.5429638854296388, 0.0, 0.1706102117061021, 0.10585305105853052, 0.1718555417185554, 0.07098381070983811, 0.07721046077210461, 0.0, 0.9551681195516812, 0.0049813200498132005, 0.0410958904109589, 0.021170610211706103, 0.08343711083437111, 0.014943960149439602, 0.017434620174346202, 0.0, 0.4520547945205479, 0.0012453300124533001, 0.024906600249066, 0.017434620174346202, 0.039850560398505604, 0.008717310087173101, 0.008717310087173101, 0.0, 0.08094645080946451, 0.0, 0.0062266500622665, 0.0049813200498132005, 0.0136986301369863, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.22291407222914073, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.30884184308841844], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.9564134495641345, 0.0, 1.2328767123287672, 0.0, 0.22540473225404734, 0.0, 1.0199252801992529, 0.0, 0.0821917808219178, 0.0, 0.0410958904109589, 0.0, 0.009962640099626401, 0.0, 0.1519302615193026, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.037359900373599, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.024906600249066], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.2988792029887921, 0.0, 1.6911581569115817, 0.0, 0.17559153175591533, 0.0, 0.9887920298879203, 0.0, 0.05977584059775841, 0.0, 0.11955168119551682, 0.0, 0.014943960149439602, 0.0, 0.16313823163138233, 0.0, 0.0012453300124533001, 0.0, 0.0273972602739726, 0.0, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.026151930261519303, 0.0, 0.0062266500622665, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0224159402241594, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.014943960149439602], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6749688667496887, 0.0, 0.4533001245330012, 0.0, 0.1519302615193026, 0.0, 0.41718555417185554, 0.0, 0.012453300124533, 0.0, 0.0136986301369863, 0.0, 0.009962640099626401, 0.0, 0.05105853051058531, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0186799501867995, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0784557907845579, 3.958904109589041, 0.0, 4.8107098381070985, 0.0, 1.1170610211706102, 0.0, 4.297633872976339, 0.0, 0.28019925280199254, 0.0, 0.31008717310087175, 0.0, 0.09713574097135741, 0.0, 2.070983810709838, 0.0, 0.0660024906600249, 0.0, 0.0784557907845579, 0.0, 0.052303860523038606, 0.0, 0.08343711083437111, 0.0, 0.0323785803237858, 0.0186799501867995, 0.024906600249066, 0.014943960149439602, 0.023661270236612703, 0.0, 0.1980074719800747, 0.0, 0.0273972602739726, 0.0024906600249066002, 0.009962640099626401, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.1307596513075965, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0037359900373599006, 0.0, 0.0136986301369863, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.047322540473225407, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0410958904109589], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4396014943960149, 0.0, 0.33748443337484435, 0.0, 0.07347447073474471, 0.0, 0.24533001245330013, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0660024906600249, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.35367372353673726, 0.0, 0.46824408468244083, 0.0, 0.07098381070983811, 0.0, 0.37608966376089664, 0.0, 0.0136986301369863, 0.0, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0547945205479452, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2403486924034869, 0.0, 0.15940224159402241, 0.0, 0.047322540473225407, 0.0, 0.18057285180572852, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.034869240348692404, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33623910336239105, 0.0, 0.5330012453300125, 0.0, 0.08094645080946451, 0.0, 0.37359900373599003, 0.0, 0.026151930261519303, 0.0, 0.008717310087173101, 0.0, 0.007471980074719801, 0.0, 0.08094645080946451, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.021170610211706103, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16189290161892902, 0.0, 0.1295143212951432, 0.0, 0.0547945205479452, 0.0, 0.09838107098381071, 0.0, 0.009962640099626401, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.024906600249066, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0660024906600249, 0.0, 0.062266500622665005, 0.0, 0.012453300124533, 0.0, 0.057285180572851806, 0.0, 0.019925280199252802, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.023661270236612703, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14819427148194272, 0.0, 0.21419676214196762, 0.0, 0.039850560398505604, 0.0, 0.0921544209215442, 0.0, 0.026151930261519303, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0361145703611457, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.052303860523038606, 0.0, 0.0722291407222914, 0.0, 0.012453300124533, 0.0, 0.038605230386052306, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.017434620174346202, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.009962640099626401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.057285180572851806, 0.0, 0.049813200498132, 0.0, 0.029887920298879204, 0.0, 0.0759651307596513, 0.0, 0.017434620174346202, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9016189290161893, 0.0, 0.8094645080946451, 0.0, 0.14196762141967623, 0.0, 0.9863013698630136, 0.0, 0.012453300124533, 0.0, 0.053549190535491904, 0.0, 0.019925280199252802, 0.0, 0.16936488169364883, 0.0, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.023661270236612703, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07098381070983811, 0.0, 0.031133250311332503, 0.0, 0.0062266500622665, 0.0, 0.0361145703611457, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0, 0.0273972602739726, 0.0, 0.0062266500622665, 0.0, 0.021170610211706103, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06724782067247821, 0.0, 0.0958904109589041, 0.0, 0.0062266500622665, 0.0, 0.05977584059775841, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0273972602739726, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0186799501867995, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.5965130759651308, 0.0, 0.5193026151930261, 0.0, 0.16811955168119552, 0.0, 0.45703611457036114, 0.0, 0.048567870485678705, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0, 0.074719800747198, 0.0, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0186799501867995, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0186799501867995, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.009962640099626401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.007471980074719801, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.012453300124533, 0.0, 0.0448318804483188, 0.0, 0.007471980074719801, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0, 0.026151930261519303, 0.0, 0.0024906600249066002, 0.0, 0.06724782067247821, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0161892901618929, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19551681195516812, 0.0, 0.2129514321295143, 0.0, 0.0273972602739726, 0.0, 0.17559153175591533, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.22291407222914073, 0.0, 0.1843088418430884, 0.0, 0.034869240348692404, 0.0, 0.14694894146948942, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.04234122042341221, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0112079701120797, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0224159402241594]]</t>
+          <t>[[0.0, 0.031133250311332503, 0.0, 0.0161892901618929, 0.0, 0.0, 0.0, 0.028642590286425903, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 67.56662515566624, 0.0, 20.326276463262765, 0.0, 5.972602739726027, 0.0, 19.63760896637609, 0.0, 1.647571606475716, 0.0, 0.8792029887920298, 0.0, 0.6363636363636364, 0.0, 4.655043586550436, 0.0, 0.3163138231631382, 0.0, 0.21046077210460773, 0.0, 0.16811955168119552, 0.0, 0.27895392278953923, 0.0, 0.09464508094645081, 0.048567870485678705, 0.0859277708592777, 0.0660024906600249, 0.06351183063511831, 0.0, 0.8119551681195517, 0.0, 0.049813200498132, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.031133250311332503, 0.0, 0.48816936488169366, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0037359900373599006, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.16936488169364883, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0684931506849315], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0049813200498132005, 19.297633872976338, 0.0, 28.408468244084684, 0.0, 3.571606475716065, 0.0, 15.435865504358656, 0.0, 1.2689912826899128, 0.0, 1.7496886674968868, 0.0, 0.5280199252801993, 0.0, 4.7210460772104605, 0.0, 0.41469489414694893, 0.0, 0.4919053549190536, 0.0, 0.22042341220423411, 0.0, 0.47322540473225405, 0.0, 0.16811955168119552, 0.07347447073474471, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.9265255292652553, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11830635118306351, 0.0062266500622665, 0.008717310087173101, 0.0, 0.6326276463262764, 0.0, 0.007471980074719801, 0.0161892901618929, 0.029887920298879204, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.017434620174346202, 0.0, 0.0, 0.0, 0.1656288916562889, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.008717310087173101, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.2054794520547945], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 5.226650062266501, 0.0, 3.5653798256537983, 0.0, 2.4246575342465753, 0.0, 3.485678704856787, 0.0, 0.3300124533001245, 0.0, 0.30884184308841844, 0.0, 0.11830635118306351, 0.0, 1.2391033623910337, 0.0, 0.12453300124533001, 0.0, 0.1133250311332503, 0.0, 0.07721046077210461, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.18057285180572852, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.15940224159402241, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0448318804483188, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0684931506849315], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 19.03113325031133, 0.0, 14.643835616438356, 0.0, 3.364881693648817, 0.0, 22.805728518057286, 0.0, 0.9701120797011208, 0.0, 1.1544209215442092, 0.0, 0.39476961394769616, 0.0, 4.186799501867995, 0.0, 0.30759651307596514, 0.0, 0.47696139476961397, 0.0, 0.1930261519302615, 0.0, 0.5305105853051059, 0.0, 0.1706102117061021, 0.09838107098381071, 0.1718555417185554, 0.0684931506849315, 0.07721046077210461, 0.0, 0.9315068493150684, 0.0, 0.0323785803237858, 0.021170610211706103, 0.08343711083437111, 0.014943960149439602, 0.0186799501867995, 0.0, 0.4396014943960149, 0.0, 0.026151930261519303, 0.014943960149439602, 0.039850560398505604, 0.008717310087173101, 0.008717310087173101, 0.0, 0.07970112079701121, 0.0, 0.0062266500622665, 0.0062266500622665, 0.0136986301369863, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.21544209215442092, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.3038605230386052], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.1008717310087173, 0.0, 1.2316313823163139, 0.0, 0.2266500622665006, 0.0, 0.8841843088418431, 0.0, 0.08343711083437111, 0.0, 0.04234122042341221, 0.0, 0.009962640099626401, 0.0, 0.1519302615193026, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.037359900373599, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.019925280199252802, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.023661270236612703], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.37733499377335, 0.0, 1.688667496886675, 0.0, 0.17559153175591533, 0.0, 0.9115815691158157, 0.0, 0.05977584059775841, 0.0, 0.11706102117061021, 0.0, 0.014943960149439602, 0.0, 0.16313823163138233, 0.0, 0.0012453300124533001, 0.0, 0.0273972602739726, 0.0, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.026151930261519303, 0.0, 0.0062266500622665, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0224159402241594, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.014943960149439602], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7285180572851806, 0.0, 0.45454545454545453, 0.0, 0.1519302615193026, 0.0, 0.36363636363636365, 0.0, 0.012453300124533, 0.0, 0.0136986301369863, 0.0, 0.009962640099626401, 0.0, 0.05105853051058531, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0186799501867995, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.074719800747198, 4.38107098381071, 0.0, 4.811955168119551, 0.0, 1.1183063511830635, 0.0, 3.8779576587795765, 0.0, 0.28019925280199254, 0.0, 0.30884184308841844, 0.0, 0.09713574097135741, 0.0, 2.063511830635118, 0.0, 0.0660024906600249, 0.0, 0.07721046077210461, 0.0, 0.052303860523038606, 0.0, 0.08343711083437111, 0.0, 0.0323785803237858, 0.0186799501867995, 0.024906600249066, 0.014943960149439602, 0.023661270236612703, 0.0, 0.1980074719800747, 0.0, 0.0273972602739726, 0.0024906600249066002, 0.009962640099626401, 0.0049813200498132005, 0.0112079701120797, 0.0, 0.1307596513075965, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0136986301369863, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.047322540473225407, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0410958904109589], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.46450809464508097, 0.0, 0.33748443337484435, 0.0, 0.07347447073474471, 0.0, 0.21793275217932753, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0660024906600249, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.36363636363636365, 0.0, 0.4669987546699875, 0.0, 0.07098381070983811, 0.0, 0.36363636363636365, 0.0, 0.0136986301369863, 0.0, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0547945205479452, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.25529265255292655, 0.0, 0.15940224159402241, 0.0, 0.047322540473225407, 0.0, 0.16687422166874222, 0.0, 0.007471980074719801, 0.0, 0.0062266500622665, 0.0, 0.0062266500622665, 0.0, 0.037359900373599, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.34744707347447074, 0.0, 0.5330012453300125, 0.0, 0.08094645080946451, 0.0, 0.36114570361145704, 0.0, 0.026151930261519303, 0.0, 0.008717310087173101, 0.0, 0.007471980074719801, 0.0, 0.08094645080946451, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.021170610211706103, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1656288916562889, 0.0, 0.1295143212951432, 0.0, 0.0547945205479452, 0.0, 0.09464508094645081, 0.0, 0.009962640099626401, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.024906600249066, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06724782067247821, 0.0, 0.062266500622665005, 0.0, 0.012453300124533, 0.0, 0.05603985056039851, 0.0, 0.019925280199252802, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.023661270236612703, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1506849315068493, 0.0, 0.21419676214196762, 0.0, 0.039850560398505604, 0.0, 0.0896637608966376, 0.0, 0.026151930261519303, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0361145703611457, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.052303860523038606, 0.0, 0.0722291407222914, 0.0, 0.012453300124533, 0.0, 0.038605230386052306, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.017434620174346202, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.009962640099626401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0547945205479452, 0.0, 0.049813200498132, 0.0, 0.029887920298879204, 0.0, 0.0784557907845579, 0.0, 0.017434620174346202, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.0199252801992529, 0.0, 0.8119551681195517, 0.0, 0.14196762141967623, 0.0, 0.8679950186799502, 0.0, 0.012453300124533, 0.0, 0.053549190535491904, 0.0, 0.019925280199252802, 0.0, 0.16936488169364883, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.023661270236612703, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.017434620174346202, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06973848069738481, 0.0, 0.031133250311332503, 0.0, 0.0062266500622665, 0.0, 0.0361145703611457, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0, 0.0273972602739726, 0.0, 0.0062266500622665, 0.0, 0.021170610211706103, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06724782067247821, 0.0, 0.099626400996264, 0.0, 0.0062266500622665, 0.0, 0.05977584059775841, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.028642590286425903, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0186799501867995, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.6425902864259029, 0.0, 0.5193026151930261, 0.0, 0.16811955168119552, 0.0, 0.410958904109589, 0.0, 0.048567870485678705, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0, 0.074719800747198, 0.0, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0186799501867995, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0186799501867995, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.009962640099626401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.012453300124533, 0.0, 0.0448318804483188, 0.0, 0.008717310087173101, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0, 0.024906600249066, 0.0, 0.0024906600249066002, 0.0, 0.06724782067247821, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0161892901618929, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.21170610211706103, 0.0, 0.21419676214196762, 0.0, 0.0273972602739726, 0.0, 0.16064757160647572, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.23038605230386053, 0.0, 0.18181818181818182, 0.0, 0.034869240348692404, 0.0, 0.1432129514321295, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0410958904109589, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.009962640099626401, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0224159402241594]]</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.590809757418174</v>
+        <v>5.032195795070737</v>
       </c>
       <c r="C3" t="n">
         <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5906991495010002</v>
+        <v>0.5913263771405545</v>
       </c>
       <c r="E3" t="n">
         <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.382981190106598</v>
+        <v>1.384184357131292</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02093743096043811</v>
+        <v>0.02093949002023239</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4295189899033051</v>
+        <v>0.4294925781998982</v>
       </c>
       <c r="I3" t="n">
-        <v>15.22384905978332</v>
+        <v>105.6954465715101</v>
       </c>
       <c r="J3" t="n">
-        <v>81.5531434743672</v>
+        <v>81.54435932815957</v>
       </c>
       <c r="K3" t="n">
-        <v>1.539005082169607</v>
+        <v>1.542095687964101</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8673079257910516</v>
+        <v>0.8673341774342618</v>
       </c>
       <c r="M3" t="n">
-        <v>2.199023129144309</v>
+        <v>2.232820333381172</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[43.96518638746081, 25.800607565347597, 38.07611878564085, 24.63620289428403, 9.277308741289549, 12.653983014070555, 0.8917675963837053, 10.195149838372064, 4.666612977517225, 5.338710445776931, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[44.31909401412168, 26.16964957441461, 38.629479629527744, 24.973930661050826, 9.152159616948792, 12.128129803532726, 0.8339509360070744, 10.109721120688956, 4.695204643369049, 5.305332697048505, 2.8578926485945755, 0.6611846292908672, 3.7038053281541234, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[26.811276561682035, 4.202277140987607, 24.36955414520669, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.73264582035267, 4.525173197895207, 27.38603245536218, 3.265125152597835, 20.031100926674434]</t>
+          <t>[32.9334845118805, 31.647367285055548, 33.01332413646799, 33.830898018250146, 32.8732331454671, 32.68636911350421, 31.84374882124133, 33.801749246652605, 30.682435084683146, 33.00159261078117, 31.110667974394786, 33.098500037317635]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[21.525665253278184, 72.82181880105111, 90.9664397319621, 40.265920935742955, 39.21064536022275, 6.083281219522221, 9.952063501619829, 4.670468717428064, 10.551233422781776, 2.7841997688939584, 4.103658500551337, 2.206909606039071, 5.291253789232363, 1.5548123500604227, 2.799603797065708, 1.299845377339415, 5.632744799191575, 0.9374183928259703, 1.9359471160156618, 0.9343859715205173, 1.5620628617477992, 0.4686479803317561, 0.8111162379774007, 0.18538275532681026, 1.3308529021182596, 0.1710777062124476, 0.3272778450272847, 0.1264975797960707, 0.416990344842046, 0.17517150331773998, 0.19773707423744602, 0.12201692367537842]</t>
+          <t>[18.63210768341097, 79.53429898892676, 91.16621875694713, 40.296205041294414, 39.25223736247699, 6.0867183142279435, 9.952838889885857, 4.672601344077344, 10.55064900411138, 2.783866095665322, 4.103658500551337, 2.210103982571215, 5.29337157228642, 1.5548123500604227, 2.799189410110044, 1.2998429911351768, 5.630494377234425, 0.9074107198015495, 1.9360408400057092, 0.9339759233703298, 1.5620628617477992, 0.4604421422980329, 0.8111162379774007, 0.18538275532681026, 1.3304857810466957, 0.1710777062124476, 0.32560081384530154, 0.12160952045562633, 0.418175068572185, 0.17517150331773998, 0.19773707423744602, 0.12201692367537842]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.7046565377001578, 90.54245150808252, 0.0, 60.72768031074205, 0.0, 17.00425485442499, 0.0, 68.16034171615819, 0.0, 5.519229277356225, 0.0, 6.218709756636351, 0.0, 2.965137297495919, 0.0, 17.63900490647072, 0.0, 2.251255641720904, 0.0, 2.500296426799668, 0.0, 1.7065783665944962, 0.0, 2.9648700186569394, 0.0, 1.3113200852338929, 0.9461394257385434, 1.5852126572138443, 1.0614201274036805, 1.0133252683535194, 0.0, 4.419999553061349, 0.14536794364889696, 0.8598442372313213, 0.5433521981379187, 1.1660013667634472, 0.31917397641484585, 0.5383456641009708, 0.03526725344584421, 3.0581578015737767, 0.08629696706884245, 0.3293562403611494, 0.3124363991146585, 0.47401127641350865, 0.2807273285898941, 0.24802397213202168, 0.03526725344584419, 0.6661130429448666, 0.0, 0.21305700411948367, 0.17545458036868317, 0.3043602855858842, 0.11114875584899048, 0.13145164696706488, 0.03526725344584421, 1.4147803983772498, 0.0, 0.1216095204556271, 0.11671605991392227, 0.1853827553268103, 0.06100846183768915, 0.1408049217942977, 0.0, 1.7959446369609326]</t>
+          <t>[0.6585405899568375, 94.03802301746651, 0.0, 59.94819809296634, 0.0, 17.003801749609853, 0.0, 59.636836822443854, 0.0, 5.517558821507308, 0.0, 6.208024446702059, 0.0, 2.965977159900463, 0.0, 17.622263488107066, 0.0, 2.251255641720904, 0.0, 2.498710526015691, 0.0, 1.7071335203102065, 0.0, 2.96494167894833, 0.0, 1.3122221451475036, 0.9432156150600347, 1.5852126572138443, 1.0599463097857305, 1.0133252683535194, 0.0, 4.431037485351484, 0.0, 0.8565154946302311, 0.5433521981379187, 1.1784020375726163, 0.32863501628982855, 0.5411815090321509, 0.0, 3.0591794736646887, 0.0, 0.33105640935787717, 0.30877655679214755, 0.4925717068725344, 0.2807273285898941, 0.2575937361285893, 0.0, 0.6647076535532884, 0.0, 0.21580530716992596, 0.1919828794384192, 0.3080524600364604, 0.12183885238988879, 0.13145164696706488, 0.0, 1.415332762726535, 0.0, 0.1216095204556271, 0.12183885238988881, 0.19806620525101934, 0.06100846183768915, 0.14920072231785061, 0.0, 1.7927700962875062]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[15.38889614094686, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374531838009012, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5102120706540463, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.351684682449697, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0932224401431487, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.709959651100379, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.293003373418633, 6.766720617459143, 1.5957241072502508, 9.437619601564657, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.622091358442047], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.232090773697233, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5491334734999171, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.651512150992408, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8057345299852554, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.575731134902835, 0.4151340798331694, 6.932336423044284], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.7992302545651963, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5309430588918022, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.256443839536551, 0.4091889883963065, 7.086691998962943]]</t>
+          <t>[[11.997590776060392, 3.7471899370295105, 9.535696422227993, 5.96163969422672, 2.825031613595803, 3.354780834787427, 0.2536930110518476, 4.155734357899146, 2.35167441622695, 6.649530764530581, 9.177753871632449, 4.828010993805787], [4.109916210230541, 11.286487530248806, 4.13593239751184, 8.800676798781469, 5.323908004394504, 2.21161494432541, 2.9100764507086976, 0.22009600607836, 3.2809518488422014, 2.732914662142555, 5.241480257962126, 8.523666341982336], [10.390480046243162, 4.654978621048339, 11.901492988048744, 3.9326472831270105, 9.503547817936589, 5.6434421092121445, 2.719597746268516, 4.0730349075811025, 0.1759136090349544, 3.680019933047869, 1.900857469707438, 6.299120484135102], [5.991842945740374, 9.820052162358055, 4.322796814888, 13.176177930249414, 4.425956475496443, 8.927600187157102, 5.488149442956291, 2.195835008506002, 3.050483591342437, 0.288250186982405, 3.0948863698903106, 2.41382159226022], [2.9110552657514206, 5.295501394300301, 10.326542586797165, 4.995005795068068, 11.50747654536291, 3.989212496146608, 8.139478866734196, 6.055186907170964, 2.246036831466679, 3.7707198541025755, 0.2796313603096256, 3.897767555257129], [3.4951841320925556, 2.5137571633593283, 5.906878689156752, 9.98430210369429, 4.339771226123096, 11.89104547596133, 2.9180763541012356, 9.288021047470993, 5.5172619985159, 2.44114161942571, 3.6113166116899946, 0.22803485378865546], [0.2608542810616591, 3.2733209778195937, 2.946679760229277, 6.125528829789802, 9.532147696483332, 3.3209507568226506, 11.716011015117244, 4.189891312560363, 7.672661234297638, 5.605076412341876, 1.4131768818773534, 3.9738182144881278], [3.7538564077068273, 0.23065179382894777, 3.4450271605950467, 2.286504582491696, 6.293322254932407, 10.334105167650279, 4.724643877579283, 13.234196865053613, 3.4488748631383483, 9.883830410375344, 5.525981826087712, 2.5529180208223328], [2.05909358190352, 2.828374486769145, 0.186317352022567, 3.1836836803303847, 2.1102366015316294, 5.8386014373397215, 9.135822963137295, 3.9014279313405766, 10.688737213666343, 3.2436383885688, 8.08251970467646, 5.114426480599669], [6.539329043581681, 2.069676288191982, 3.657596364143476, 0.19600402526076519, 4.10396875958609, 2.6637285842323375, 6.001264582333904, 10.639960721058248, 4.1111593663820996, 11.504160085338109, 3.6606801398387883, 9.028898179918144], [8.95871715234031, 4.868961654332907, 2.227723796040667, 2.8762049872580566, 0.1269381686756833, 3.418900629405698, 2.3495248970648266, 5.148983161039355, 8.970131875637394, 4.561808210776914, 11.45072488468592, 3.3339542862655613], [4.400458138601073, 8.136760827568724, 5.9301548206012775, 2.03477244679101, 3.5939287776404627, 0.2585552240459651, 3.7946478580178638, 2.6182428992952764, 5.710316527364313, 10.182210081580614, 3.720296636491089, 12.277513878157253]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[0.0, 0.3565647541981538, 0.0, 0.16484519504378692, 0.0, 0.0, 0.0, 0.4180563763149647, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0996886480507565, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168812, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 70.93287923964961, 0.0, 17.668028603953953, 0.0, 7.715344779718885, 0.0, 23.441244475821733, 0.0, 3.0484997021493054, 0.0, 1.7765521970930178, 0.0, 1.756562593221831, 0.0, 5.933573716113354, 0.0, 1.0702522915155377, 0.0, 0.7917322059381653, 0.0, 0.8407720865311248, 0.0, 0.9811224839210358, 0.0, 0.5000709462095569, 0.314933102102731, 0.5223175959099488, 0.4769044898731617, 0.3925852250797812, 0.0, 1.9357989107029374, 0.0, 0.3341199768415293, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.3351950952181536, 0.0, 1.328077752924219, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07053450689168847, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.035267253445844166, 0.07053450689168834, 0.035267253445844075, 0.0, 0.0, 0.703092194246869, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243537, 0.0, 0.43109648596875205], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.11148312237776016, 17.223530513060375, 0.0, 42.459898143931746, 0.0, 4.984010170249033, 0.0, 17.347553547522782, 0.0, 2.673370563595412, 0.0, 3.8568186139556113, 0.0, 1.4846924477427395, 0.0, 6.502311752426153, 0.0, 1.3085959532187599, 0.0, 1.4621468413816456, 0.0, 0.7877458014801705, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 2.2299051820945017, 0.0, 0.4537993501305289, 0.30426855400399416, 0.8459760603018561, 0.09315867601128319, 0.10550819217920296, 0.0, 1.7470448864165657, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.15710912864667462, 0.0, 0.0, 0.0, 0.6341970707478032, 0.0, 0.03526725344584421, 0.0705345068916884, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.7644967245088606], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 7.096249707327681, 0.0, 5.437655888510956, 0.0, 5.480219294185036, 0.0, 5.8278014502420605, 0.0, 1.0710764824222736, 0.0, 1.1754055090594748, 0.0, 0.5986295022743896, 0.0, 2.793118367461833, 0.0, 0.7141574034175634, 0.0, 0.5313197250903469, 0.0, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.8022516076349712, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.7499244570306806, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.30842477764736526, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.0, 0.4236099457674603], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.035267253445844055, 22.94520199861077, 0.0, 17.764730272076104, 0.0, 5.541277775018089, 0.0, 42.27486702534726, 0.0, 2.2300734810769267, 0.0, 2.9549238190530067, 0.0, 1.2360701813152588, 0.0, 6.957912098315579, 0.0, 0.9224525159191787, 0.0, 1.483301489952902, 0.0, 0.8471649743716004, 0.0, 1.7321470584423648, 0.0, 0.7142268904584004, 0.6861033788001838, 0.7717650802104099, 0.4449158242263317, 0.46977506001687913, 0.0, 2.0979697391836702, 0.1410690137833764, 0.41701637803238084, 0.20769775082828748, 0.5595427255680409, 0.238876241237813, 0.21101638435840725, 0.0, 1.3561832520669443, 0.03526725344584425, 0.2722121635989663, 0.1988632555749859, 0.27948712605938364, 0.10550819217920143, 0.15357499386767554, 0.0, 0.5254879493653946, 0.0, 0.10568443093039617, 0.08629696706884352, 0.15321102365359743, 0.08629696706884211, 0.08629696706884217, 0.0, 0.8314329039747757, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 1.149696599164147], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.3024151452686232, 0.0, 2.6174650629776384, 0.0, 0.923069317931281, 0.0, 2.406322410051656, 0.0, 0.5096519732428465, 0.0, 0.41701637803238145, 0.0, 0.11114875584899035, 0.0, 0.6501886957591321, 0.0, 0.15764126922487304, 0.0, 0.03526725344584391, 0.0, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.4067904368502481, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.24120856130395588, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0862969670688437, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.2380437813447033], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.333434763897047, 0.0, 4.146959038727561, 0.0, 0.7421163856103026, 0.0, 2.1624265486180545, 0.0, 0.4192306890890823, 0.0, 1.0009478935914595, 0.0, 0.18613414088700717, 0.0, 0.6965748721411671, 0.0, 0.03526725344584399, 0.0, 0.2480239721320208, 0.0, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.23527840339477765, 0.0, 0.09315867601128343, 0.0, 0.11134392501747215, 0.0, 0.0, 0.0, 0.3108589175095745, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.04984432402537779, 0.0, 0.0, 0.0, 0.11671605991392282, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22821160920972303], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.802228755168092, 0.0, 1.3843992698346834, 0.0, 0.8450754776983171, 0.0, 1.2412798397374032, 0.0, 0.14920072231784717, 0.0, 0.21995503635527222, 0.0, 0.2821380275667512, 0.0, 0.33274323072806267, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.19559215180336503, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07866307196689278, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768866], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.689773443756574, 5.057778719321288, 0.0, 6.986842989729219, 0.0, 2.60256513562926, 0.0, 6.603318678102789, 0.0, 1.0178697067281803, 0.0, 0.9493973272836879, 0.0, 0.502079625598506, 0.0, 6.397477118204055, 0.0, 0.41078527597478676, 0.0, 0.43228560098924473, 0.0, 0.3560598650080203, 0.0, 0.44555325224983844, 0.0, 0.2667972418495151, 0.18911803145698147, 0.27674920421951754, 0.1722341381780362, 0.2878841001603976, 0.0, 0.8105137370837415, 0.0, 0.2158053071699267, 0.04984432402537842, 0.14080492179429777, 0.07040246089714872, 0.14938770373228444, 0.0, 0.6043328779845395, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.07882063461243632, 0.0, 0.23100116464611686, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.3602298689492697, 0.0, 0.03526725344584419, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.2815272253278437], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.373934851779479, 0.0, 1.0689444512204713, 0.0, 0.4637077898358893, 0.0, 0.8036885603582327, 0.0, 0.3242978994722724, 0.0, 0.1797852881565914, 0.0, 0.07882063461243556, 0.0, 0.41078527597478676, 0.0, 0.14953297207613514, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.10550819217920401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844124, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843846, 0.0, 0.07053450689168782, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.1223733207483821, 0.0, 1.4686174249684079, 0.0, 0.4477060985422264, 0.0, 1.2257210862388495, 0.0, 0.17591360903495365, 0.0, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.3521664688583445, 0.0, 0.0, 0.0, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.17950904055170688, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9300656134315697, 0.0, 0.7124550306544375, 0.0, 0.31206886765491826, 0.0, 0.7754137099184424, 0.0, 0.11134392501746977, 0.0, 0.08629696706884356, 0.0, 0.14536794364889521, 0.0, 0.2889058270861465, 0.0, 0.03526725344584404, 0.0, 0.07053450689168782, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.049844324025378396, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884339, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168782], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.078035805584502, 0.0, 1.7615922645009436, 0.0, 0.5464005171597189, 0.0, 1.3648862386413065, 0.0, 0.21305700411948192, 0.0, 0.11671605991392046, 0.0, 0.09953295742310303, 0.0, 0.5012294730751393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.3089372367037815, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.20241114548592845, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6685926212108927, 0.0, 0.6035702315308191, 0.0, 0.3954741484748924, 0.0, 0.5030763336708686, 0.0, 0.14080492179429757, 0.0, 0.21160352067506322, 0.0, 0.035267253445844006, 0.0, 0.24321904091125665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.10568443093039523, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.37263470404513116, 0.0, 0.4850012838037022, 0.0, 0.140606527285403, 0.0, 0.3919566170583829, 0.0, 0.27715238404366227, 0.0, 0.03526725344584402, 0.0, 0.0, 0.0, 0.24588882630368028, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243652, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6963388348845994, 0.0, 1.0331721919511425, 0.0, 0.36113282065740643, 0.0, 0.47761937258736037, 0.0, 0.33562048161107094, 0.0, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.2951510946817111, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832], [0.0, 0.392652375191469, 0.0, 0.5688146222788149, 0.0, 0.16505203903612162, 0.0, 0.36640224827946927, 0.0, 0.1576412692248712, 0.0, 0.06100846183768829, 0.0, 0.0, 0.0, 0.18591738586820974, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22296624475551793, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075713, 0.0, 0.0, 0.0, 0.03526725344584384, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537851], [0.0, 0.3724057323758755, 0.0, 0.2994546142200476, 0.0, 0.226738996961806, 0.0, 0.4633062821858818, 0.0, 0.21683766852786868, 0.0, 0.12183885238988858, 0.0, 0.035267253445843944, 0.0, 0.1362142855678741, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.07053450689168768, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.91644514967074, 0.0, 2.288595383431523, 0.0, 0.7762153056305189, 0.0, 2.19101792451358, 0.0, 0.13145164696706596, 0.0, 0.5933393108013166, 0.0, 0.1922573368758145, 0.0, 0.7376769906791236, 0.0, 0.11687539931905357, 0.0, 0.07040246089714874, 0.0, 0.0705345068916878, 0.0, 0.1863173520225662, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.4062868887216017, 0.0, 0.049844324025377876, 0.035267253445844006, 0.04984432402537845, 0.0, 0.03526725344584385, 0.0, 0.14007610152566816, 0.03526725344584425, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07040246089714884, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.09953295742310303], [0.0, 0.0, 0.0, 0.14536794364889696, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.47992569317633016, 0.0, 0.2598535576242571, 0.0, 0.10568443093039691, 0.0, 0.3700369835434605, 0.0, 0.07882063461243574, 0.0, 0.07053450689168844, 0.0, 0.10580176033753227, 0.0, 0.1573261439337863, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768846, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584396, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.0, 0.2981830830649509, 0.0, 0.10568443093039637, 0.0, 0.22496741047060465, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.590890390979193, 0.0, 0.6747689409947849, 0.0, 0.09315867601128223, 0.0, 0.38517153373547103, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.13639632946543445, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.07882063461243612, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.0, 0.09315867601128307, 0.0, 0.09968864805075678, 0.0, 0.08629696706884303, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.21160352067506732, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33366014333491806, 0.0, 0.23887624123781437, 0.0, 0.03526725344584383, 0.0, 0.1754545803686836, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168814, 1.4452525608517164, 0.0, 1.4637380325644744, 0.0, 1.2041355991434601, 0.0, 1.326644164675334, 0.0, 0.4071372172102203, 0.0, 0.15341333593459053, 0.0, 0.07882063461243645, 0.0, 0.4594609597595577, 0.0, 0.1410690137833756, 0.0, 0.13182863758724722, 0.0, 0.0, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.1891180314569825, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2513222833258918, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768784, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445844166, 0.0, 0.04984432402537851], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.0, 0.11114875584899023, 0.0, 0.035267253445844166, 0.0, 0.15341333593459083, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2173091951010616, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11134392501747085, 0.0, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.04984432402537791, 0.0, 0.10580176033753151, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168789, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15732614393378633, 0.0, 0.339191868514091, 0.0, 0.09953295742310306, 0.0, 0.13166383701150325, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.0, 0.04984432402537786, 0.0, 0.0, 0.0, 0.09315867601128291, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.0, 0.11687539931905308, 0.0, 0.0, 0.0, 0.16148045939482333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.0, 0.20102727913036317, 0.0, 0.07053450689168839, 0.0, 0.5425467109877259, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1269381686756839, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243602], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.11114875584898978, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.1318286375872472, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.0, 0.10550819217920085, 0.0, 0.0, 0.0, 0.2020737422205393, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.06100846183768903, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07040246089714884, 0.0, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6917984760108976, 0.0, 0.7720081890546565, 0.0, 0.22150076890975368, 0.0, 0.7636198727869011, 0.0, 0.11671605991392184, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12160952045562846, 0.0, 0.0, 0.0, 0.1058017603375333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0862969670688434, 0.03526725344584411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.08629696706884354], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916884, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04984432402537779, 0.0, 0.13621428556787427, 0.0, 0.0, 0.0, 0.07053450689168825, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0, 0.0, 0.11687539931905205, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.9950677749785297, 0.0, 0.7238356832856068, 0.0, 0.2711160947356388, 0.0, 0.621992164488976, 0.0, 0.179509040551707, 0.0, 0.09315867601128387, 0.0, 0.04984432402537798, 0.0, 0.33582373680066324, 0.0, 0.03526725344584415, 0.0, 0.06100846183768789, 0.0, 0.08629696706884349, 0.0, 0.06100846183768829, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.04984432402537784, 0.0, 0.10550819217920339, 0.0, 0.035267253445844124, 0.03526725344584416, 0.03526725344584415, 0.0, 0.0, 0.03526725344584421, 0.16886968849498357, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.035267253445844124, 0.0, 0.0, 0.0, 0.03526725344584419, 0.03526725344584419, 0.0, 0.0, 0.11134392501747037, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.1983635198880408]]</t>
+          <t>[[0.0, 0.3351950952181478, 0.0, 0.18265217551481125, 0.0, 0.0, 0.0, 0.4180563763149647, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168812, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 74.480476982224, 0.0, 17.923961281013455, 0.0, 7.727890751514273, 0.0, 21.431507636262022, 0.0, 3.067375991424555, 0.0, 1.7956924693483067, 0.0, 1.7658085761328823, 0.0, 6.157081099279632, 0.0, 1.072500301994834, 0.0, 0.8509258963557415, 0.0, 0.8412644374406971, 0.0, 0.9915673852898383, 0.0, 0.5000709462095569, 0.347748232474827, 0.5223175959099488, 0.4780380565974221, 0.3925852250797812, 0.0, 1.9586654001948354, 0.0, 0.37679825702982767, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.3351950952181536, 0.0, 1.3366365517372627, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07882063461243506, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.04984432402537801, 0.07053450689168834, 0.035267253445844075, 0.0, 0.0, 0.7171327786948001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243537, 0.0, 0.43109648596875205], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.11148312237776016, 17.51945602345737, 0.0, 42.41833443699068, 0.0, 5.0064258369449375, 0.0, 17.545722056459624, 0.0, 2.6717231259884264, 0.0, 3.857467959199109, 0.0, 1.4847164723740889, 0.0, 6.525504548734949, 0.0, 1.307563303853914, 0.0, 1.4612885120931256, 0.0, 0.7906560921724971, 0.0, 1.5853368991127177, 0.0, 0.7371175564715419, 0.43316007904758697, 1.0823329281260705, 0.5939010034368932, 0.517934533785683, 0.0, 2.243758467961436, 0.0, 0.4525810946436798, 0.30426855400399416, 0.8569988009059346, 0.09315867601128319, 0.10550819217920296, 0.0, 1.7469507879800816, 0.0, 0.12201692367537655, 0.18265217551481117, 0.2807273285898912, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.16460040793797942, 0.0, 0.0, 0.0, 0.6341970707478032, 0.0, 0.03526725344584421, 0.07882063461243571, 0.13639632946543281, 0.03526725344584419, 0.035267253445844166, 0.0, 0.7691886446912705], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 7.145067679197186, 0.0, 5.435380331805128, 0.0, 5.4799750684389394, 0.0, 5.743650487965188, 0.0, 1.0712748308591162, 0.0, 1.1754055090594748, 0.0, 0.5986295022743896, 0.0, 2.7934481596583445, 0.0, 0.7141574034175634, 0.0, 0.5313197250903469, 0.0, 0.4252505692122663, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.8022516076349712, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.7499244570306806, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.30842477764736526, 0.0, 0.0498443240253781, 0.0, 0.07053450689168841, 0.0, 0.0, 0.0, 0.4223413313185044], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.035267253445844055, 21.273473495326133, 0.0, 17.653441766680807, 0.0, 5.386215705955767, 0.0, 34.25437212277142, 0.0, 2.1544597927661844, 0.0, 2.935769825005891, 0.0, 1.2234009475348173, 0.0, 6.435423069278175, 0.0, 0.9195697605650929, 0.0, 1.4517236655952532, 0.0, 0.8462656569926714, 0.0, 1.7252077647219963, 0.0, 0.7142268904584004, 0.6707070444444065, 0.7717650802104099, 0.44250064442239273, 0.46977506001687913, 0.0, 2.085719957678519, 0.0, 0.368697611744475, 0.20769775082828748, 0.5595427255680409, 0.238876241237813, 0.21384169360017435, 0.0, 1.3455432048664102, 0.0, 0.27437421034646986, 0.19270853231927834, 0.27948712605938364, 0.10550819217920143, 0.15357499386767554, 0.0, 0.5244924347959045, 0.0, 0.10568443093039617, 0.09315867601128312, 0.15321102365359743, 0.07882063461243528, 0.08629696706884217, 0.0, 0.8198415225601114, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 1.1456007317499548], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.344263203730531, 0.0, 2.617337672477005, 0.0, 0.9234388654998725, 0.0, 2.2469653371390033, 0.0, 0.5106703449516852, 0.0, 0.4183826989986844, 0.0, 0.11114875584899035, 0.0, 0.6501886957591321, 0.0, 0.15764126922487304, 0.0, 0.03526725344584391, 0.0, 0.07040246089714881, 0.0, 0.08611706908901777, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.4067904368502481, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.24367770477977616, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0862969670688437, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.23554191739728292], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.367449325739844, 0.0, 4.144069097542604, 0.0, 0.7421163856103026, 0.0, 2.107545092180845, 0.0, 0.4192306890890823, 0.0, 0.9950038730376165, 0.0, 0.18613414088700717, 0.0, 0.6965748721411671, 0.0, 0.03526725344584399, 0.0, 0.2480239721320208, 0.0, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.23527840339477765, 0.0, 0.09315867601128343, 0.0, 0.10568443093039416, 0.0, 0.035267253445844166, 0.0, 0.3108589175095745, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.03526725344584425, 0.03526725344584419, 0.0, 0.0, 0.11671605991392282, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22821160920972303], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.8359957432482417, 0.0, 1.3844407177575222, 0.0, 0.8450754776983171, 0.0, 1.1434028552690199, 0.0, 0.14920072231784717, 0.0, 0.21995503635527222, 0.0, 0.2821380275667512, 0.0, 0.33274323072806267, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.19559215180336503, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07040246089714869, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768866], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.6425323614889791, 5.418178005595252, 0.0, 6.988035071454866, 0.0, 2.603704826819387, 0.0, 6.1986661332365145, 0.0, 1.0178697067281803, 0.0, 0.949147367862537, 0.0, 0.502079625598506, 0.0, 6.375716783539526, 0.0, 0.41078527597478676, 0.0, 0.4310677054305617, 0.0, 0.3560598650080203, 0.0, 0.44555325224983844, 0.0, 0.2667972418495151, 0.18911803145698147, 0.27674920421951754, 0.1722341381780362, 0.2878841001603976, 0.0, 0.8105137370837415, 0.0, 0.2158053071699267, 0.04984432402537842, 0.14080492179429777, 0.07040246089714872, 0.15341333593459047, 0.0, 0.6043328779845395, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.10568443093039574, 0.0, 0.23100116464611686, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3602298689492697, 0.0, 0.03526725344584419, 0.035267253445844256, 0.0, 0.0, 0.03526725344584419, 0.0, 0.2815272253278437], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.3847319384421342, 0.0, 1.0689444512204713, 0.0, 0.4637077898358893, 0.0, 0.764125403216883, 0.0, 0.3242978994722724, 0.0, 0.1797852881565914, 0.0, 0.07882063461243556, 0.0, 0.41078527597478676, 0.0, 0.14953297207613514, 0.0, 0.0, 0.0, 0.03526725344584393, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.10550819217920401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844124, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.035267253445843846, 0.0, 0.07053450689168782, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.1830150085095699, 0.0, 1.46774174733167, 0.0, 0.4477060985422264, 0.0, 1.2069837161004897, 0.0, 0.17591360903495365, 0.0, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.3521664688583445, 0.0, 0.0, 0.0, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.17950904055170688, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9655749590412817, 0.0, 0.7124550306544375, 0.0, 0.31206886765491826, 0.0, 0.7382444038873386, 0.0, 0.11134392501746977, 0.0, 0.09315867601128307, 0.0, 0.14536794364889521, 0.0, 0.2970993078765262, 0.0, 0.03526725344584404, 0.0, 0.07053450689168782, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.049844324025378396, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884339, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168782], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.0854306675798493, 0.0, 1.7615922645009436, 0.0, 0.5464005171597189, 0.0, 1.356350198313154, 0.0, 0.21305700411948192, 0.0, 0.11671605991392046, 0.0, 0.09953295742310303, 0.0, 0.5012294730751393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.3089372367037815, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.20241114548592845, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6723236758014889, 0.0, 0.6035702315308191, 0.0, 0.3954741484748924, 0.0, 0.49757440772010675, 0.0, 0.14080492179429757, 0.0, 0.21160352067506322, 0.0, 0.035267253445844006, 0.0, 0.24321904091125665, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.10568443093039523, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.374080221422333, 0.0, 0.4850012838037022, 0.0, 0.140606527285403, 0.0, 0.3905454988933167, 0.0, 0.27715238404366227, 0.0, 0.03526725344584402, 0.0, 0.0, 0.0, 0.24588882630368028, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243652, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6993744966290104, 0.0, 1.0331721919511425, 0.0, 0.36113282065740643, 0.0, 0.4702139218199332, 0.0, 0.33562048161107094, 0.0, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.2951510946817111, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832], [0.0, 0.392652375191469, 0.0, 0.5688146222788149, 0.0, 0.16505203903612162, 0.0, 0.36640224827946927, 0.0, 0.1576412692248712, 0.0, 0.06100846183768829, 0.0, 0.0, 0.0, 0.18591738586820974, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22296624475551793, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075713, 0.0, 0.0, 0.0, 0.04984432402537858, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3660380607092411, 0.0, 0.2994546142200476, 0.0, 0.226738996961806, 0.0, 0.4682407726228201, 0.0, 0.21683766852786868, 0.0, 0.12183885238988858, 0.0, 0.035267253445843944, 0.0, 0.1362142855678741, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.07053450689168768, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.0234248353115074, 0.0, 2.2898893126071957, 0.0, 0.7762153056305189, 0.0, 2.030896921639897, 0.0, 0.13145164696706596, 0.0, 0.5933393108013166, 0.0, 0.1922573368758145, 0.0, 0.7376769906791236, 0.0, 0.12201692367537692, 0.0, 0.07040246089714874, 0.0, 0.0705345068916878, 0.0, 0.1863173520225662, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.4062868887216017, 0.0, 0.049844324025377876, 0.035267253445844006, 0.04984432402537845, 0.0, 0.03526725344584385, 0.0, 0.14007610152566816, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.07040246089714884, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.09315867601128382], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.478809551545544, 0.0, 0.2598535576242571, 0.0, 0.10568443093039691, 0.0, 0.3700369835434605, 0.0, 0.07882063461243574, 0.0, 0.07053450689168844, 0.0, 0.10580176033753227, 0.0, 0.1573261439337863, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768846, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584396, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.0, 0.2981830830649509, 0.0, 0.10568443093039637, 0.0, 0.22496741047060465, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.590890390979193, 0.0, 0.6879408586909298, 0.0, 0.09315867601128223, 0.0, 0.38517153373547103, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.13639632946543445, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.07882063461243612, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.0, 0.09315867601128307, 0.0, 0.09968864805075678, 0.0, 0.08629696706884303, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.21160352067506732, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.33541710325344815, 0.0, 0.23887624123781437, 0.0, 0.03526725344584383, 0.0, 0.1754545803686836, 0.0, 0.11148312237775884, 0.0, 0.049844324025378604, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168814, 1.4898675679795736, 0.0, 1.4637380325644744, 0.0, 1.2041355991434601, 0.0, 1.2327936875323977, 0.0, 0.4071372172102203, 0.0, 0.15341333593459053, 0.0, 0.07882063461243645, 0.0, 0.4594609597595577, 0.0, 0.1410690137833756, 0.0, 0.13182863758724722, 0.0, 0.0, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.1891180314569825, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2513222833258918, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768784, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445844166, 0.0, 0.04984432402537851], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.0, 0.11114875584899023, 0.0, 0.035267253445844166, 0.0, 0.15341333593459083, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2173091951010616, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.10568443093039584, 0.0, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.035267253445844256, 0.0, 0.10580176033753151, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168789, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15732614393378633, 0.0, 0.339191868514091, 0.0, 0.10550819217920367, 0.0, 0.13166383701150325, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.0, 0.04984432402537786, 0.0, 0.0, 0.0, 0.09315867601128291, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243541, 0.0, 0.11687539931905308, 0.0, 0.0, 0.0, 0.16148045939482333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.0, 0.1980662052510194, 0.0, 0.07053450689168839, 0.0, 0.5425467109877259, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1269381686756839, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243602], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.11650326837884499, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0352672534458441, 0.0, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.0, 0.10550819217920135, 0.0, 0.03526725344584425, 0.0, 0.2020737422205393, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.06100846183768903, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.06100846183768888, 0.0, 0.0, 0.0, 0.035267253445844075, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7249425301567154, 0.0, 0.7740805471904836, 0.0, 0.22150076890975368, 0.0, 0.7303050960581251, 0.0, 0.11671605991392184, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12160952045562846, 0.0, 0.0, 0.0, 0.1058017603375333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.08629696706884354], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243571, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884199, 0.0, 0.13621428556787427, 0.0, 0.0, 0.0, 0.07053450689168825, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.0, 0.0705345068916883, 0.0, 0.0, 0.0, 0.12201692367537843, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.9971182514511873, 0.0, 0.7210191913462495, 0.0, 0.2711160947356388, 0.0, 0.6198566806846741, 0.0, 0.17608983990366803, 0.0, 0.09315867601128387, 0.0, 0.035267253445844235, 0.0, 0.3341199768415262, 0.0, 0.03526725344584415, 0.0, 0.049844324025378646, 0.0, 0.08629696706884349, 0.0, 0.06100846183768829, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.04984432402537784, 0.0, 0.12183885238988869, 0.0, 0.0, 0.03526725344584416, 0.03526725344584415, 0.0, 0.0, 0.0, 0.16886968849498357, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844124, 0.0, 0.03526725344584406, 0.0, 0.03526725344584419, 0.03526725344584419, 0.0, 0.0, 0.11134392501747037, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.19198287943841905]]</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.1784</v>
+        <v>72.0719</v>
       </c>
       <c r="C4" t="n">
-        <v>11.87</v>
+        <v>13.87</v>
       </c>
       <c r="D4" t="n">
-        <v>3.3959</v>
+        <v>3.4782</v>
       </c>
       <c r="E4" t="n">
-        <v>20.1</v>
+        <v>22.11</v>
       </c>
       <c r="F4" t="n">
-        <v>5.984400000000001</v>
+        <v>6.053999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0179</v>
+        <v>0.017</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2975</v>
+        <v>2.196800000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>3.42</v>
+        <v>98.8</v>
       </c>
       <c r="J4" t="n">
-        <v>285.72</v>
+        <v>281.77</v>
       </c>
       <c r="K4" t="n">
-        <v>6.083999999999999</v>
+        <v>6.406100000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>2.825699999999999</v>
+        <v>2.7572</v>
       </c>
       <c r="M4" t="n">
-        <v>6.0987</v>
+        <v>6.172800000000001</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[67.95, 19.28, 104.27, 45.94, 9.55, 18.32, 0.21, 10.78, 2.45, 2.94, 1.14, 0.09, 1.41, 0.01, 0.22, 0.06, 0.03, 0.01, 0.0, 0.02, 0.0, 0.02, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[73.56, 23.3, 101.62, 38.94, 8.87, 16.25, 0.72, 9.72, 1.58, 2.23, 1.47, 0.22, 1.41, 0.04, 0.32, 0.09, 0.06, 0.06, 0.01, 0.09, 0.02, 0.02, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.03, 0.0, 0.03, 0.04, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[55.36, 0.36, 48.06, 1.73, 54.25, 7.91, 0.44, 48.3, 0.42, 51.05, 0.47, 17.37]</t>
+          <t>[22.96, 18.31, 26.1, 20.75, 25.68, 19.97, 20.04, 33.73, 19.85, 27.61, 19.85, 26.92]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[7.89, 73.8, 110.82, 28.72, 31.74, 3.39, 7.26, 2.71, 6.14, 1.46, 2.02, 0.97, 2.68, 0.62, 0.91, 0.56, 1.87, 0.28, 0.2, 0.1, 0.3, 0.06, 0.13, 0.03, 0.14, 0.02, 0.07, 0.05, 0.08, 0.01, 0.0, 0.0]</t>
+          <t>[3.58, 89.83, 108.4, 23.35, 26.27, 2.92, 6.11, 2.14, 5.64, 1.34, 1.68, 0.99, 2.76, 0.74, 1.11, 0.34, 2.57, 0.21, 0.35, 0.06, 0.26, 0.04, 0.03, 0.01, 0.24, 0.04, 0.04, 0.02, 0.07, 0.01, 0.02, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.03, 108.63, 0.0, 72.68, 0.0, 15.54, 0.01, 51.58, 0.0, 5.27, 0.01, 5.71, 0.0, 1.93, 0.0, 13.79, 0.0, 1.08, 0.0, 1.16, 0.0, 0.82, 0.0, 0.98, 0.0, 0.39, 0.13, 0.42, 0.16, 0.15, 0.0, 2.18, 0.0, 0.05, 0.02, 0.19, 0.02, 0.07, 0.0, 1.47, 0.0, 0.02, 0.03, 0.09, 0.05, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.34, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.35]</t>
+          <t>[0.17, 113.94, 0.0, 67.92, 0.0, 15.59, 0.0, 47.36, 0.0, 3.6, 0.0, 4.11, 0.0, 1.56, 0.0, 15.99, 0.0, 1.11, 0.0, 1.21, 0.0, 0.61, 0.0, 1.22, 0.0, 0.52, 0.25, 0.44, 0.16, 0.27, 0.0, 2.2, 0.0, 0.27, 0.11, 0.2, 0.02, 0.1, 0.0, 1.27, 0.0, 0.03, 0.02, 0.04, 0.01, 0.01, 0.0, 0.06, 0.0, 0.01, 0.03, 0.1, 0.01, 0.02, 0.0, 0.43, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.49]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[14.27, 0.03, 14.19, 0.14, 4.7, 0.51, 0.01, 3.61, 0.0, 11.22, 0.09, 6.46], [0.02, 0.05, 0.06, 0.12, 0.02, 0.01, 0.0, 0.0, 0.0, 0.02, 0.06, 0.0], [16.01, 0.08, 9.88, 0.11, 15.0, 0.45, 0.06, 3.11, 0.01, 1.77, 0.03, 1.32], [0.04, 0.15, 0.15, 1.03, 0.04, 0.12, 0.0, 0.03, 0.04, 0.02, 0.08, 0.02], [4.13, 0.01, 17.14, 0.08, 13.18, 2.95, 0.19, 11.02, 0.03, 4.57, 0.01, 0.8], [0.24, 0.0, 0.43, 0.16, 3.31, 1.53, 0.01, 1.74, 0.06, 0.36, 0.0, 0.02], [0.0, 0.0, 0.02, 0.0, 0.24, 0.0, 0.07, 0.04, 0.01, 0.04, 0.01, 0.01], [3.25, 0.02, 3.1, 0.0, 11.82, 1.87, 0.05, 12.74, 0.03, 14.46, 0.01, 0.8], [0.02, 0.0, 0.0, 0.01, 0.03, 0.09, 0.0, 0.03, 0.07, 0.09, 0.05, 0.02], [11.45, 0.02, 2.33, 0.02, 4.92, 0.24, 0.05, 14.21, 0.08, 13.03, 0.03, 4.48], [0.05, 0.0, 0.04, 0.06, 0.05, 0.07, 0.0, 0.01, 0.09, 0.01, 0.08, 0.01], [5.69, 0.0, 0.7, 0.0, 0.65, 0.05, 0.0, 1.46, 0.0, 5.28, 0.02, 3.43]]</t>
+          <t>[[5.88, 0.58, 3.72, 1.32, 0.57, 0.82, 0.1, 1.32, 0.48, 1.86, 3.87, 2.33], [1.07, 5.68, 0.34, 4.08, 1.03, 0.23, 0.66, 0.04, 0.86, 0.17, 1.47, 2.61], [4.48, 0.54, 6.56, 0.96, 5.95, 1.04, 0.51, 1.68, 0.05, 1.37, 0.3, 2.58], [1.58, 4.43, 1.11, 5.21, 0.73, 3.37, 1.65, 0.58, 0.71, 0.06, 0.83, 0.41], [0.55, 0.75, 6.69, 0.85, 6.24, 0.76, 3.45, 2.97, 0.09, 1.67, 0.07, 1.48], [0.73, 0.42, 1.45, 3.44, 0.84, 4.77, 0.65, 4.41, 2.05, 0.23, 0.85, 0.09], [0.07, 0.81, 0.62, 1.66, 3.84, 0.89, 5.25, 1.25, 2.93, 1.3, 0.33, 1.0], [1.31, 0.1, 1.17, 0.73, 3.5, 5.17, 1.49, 10.27, 1.54, 5.66, 1.73, 0.93], [0.5, 0.9, 0.0, 1.05, 0.26, 1.72, 3.24, 1.67, 5.08, 0.34, 3.61, 1.44], [1.68, 0.25, 1.68, 0.06, 1.38, 0.3, 1.59, 6.85, 0.49, 7.38, 0.5, 5.35], [3.2, 1.49, 0.43, 0.89, 0.06, 0.82, 0.33, 1.74, 4.07, 0.67, 5.06, 1.03], [1.83, 2.3, 2.28, 0.45, 1.15, 0.03, 1.03, 0.86, 1.44, 6.74, 1.11, 7.61]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 65.73, 0.0, 15.76, 0.0, 4.29, 0.01, 12.87, 0.0, 1.85, 0.01, 0.91, 0.0, 0.78, 0.0, 3.45, 0.0, 0.34, 0.0, 0.21, 0.0, 0.15, 0.0, 0.18, 0.0, 0.11, 0.04, 0.06, 0.04, 0.04, 0.0, 0.73, 0.0, 0.04, 0.0, 0.02, 0.01, 0.01, 0.0, 0.41, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.07], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 14.45, 0.0, 34.01, 0.0, 3.31, 0.0, 9.82, 0.0, 1.37, 0.0, 2.32, 0.0, 0.51, 0.0, 3.23, 0.0, 0.32, 0.0, 0.41, 0.0, 0.43, 0.0, 0.32, 0.0, 0.15, 0.05, 0.19, 0.04, 0.06, 0.0, 0.57, 0.0, 0.0, 0.02, 0.07, 0.0, 0.03, 0.0, 0.46, 0.0, 0.0, 0.02, 0.05, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.1, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.09], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.97, 0.0, 2.81, 0.0, 4.0, 0.0, 2.14, 0.0, 0.43, 0.0, 0.28, 0.0, 0.11, 0.0, 1.05, 0.0, 0.13, 0.0, 0.06, 0.0, 0.06, 0.0, 0.06, 0.0, 0.02, 0.01, 0.01, 0.03, 0.01, 0.0, 0.12, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.09, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 13.32, 0.0, 9.61, 0.0, 1.86, 0.0, 20.21, 0.0, 0.69, 0.0, 1.0, 0.0, 0.27, 0.0, 2.57, 0.0, 0.15, 0.0, 0.31, 0.0, 0.08, 0.0, 0.21, 0.0, 0.06, 0.03, 0.07, 0.05, 0.01, 0.0, 0.37, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.25, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.09, 0.0, 1.12, 0.0, 0.37, 0.0, 0.79, 0.0, 0.32, 0.0, 0.14, 0.0, 0.01, 0.0, 0.28, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.24, 0.0, 2.08, 0.0, 0.28, 0.0, 1.15, 0.0, 0.11, 0.0, 0.38, 0.0, 0.03, 0.0, 0.23, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.07, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.77, 0.0, 0.45, 0.0, 0.11, 0.0, 0.25, 0.0, 0.06, 0.0, 0.04, 0.0, 0.0, 0.0, 0.12, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.76, 0.0, 3.3, 0.0, 0.67, 0.0, 2.34, 0.0, 0.32, 0.0, 0.32, 0.0, 0.09, 0.0, 2.35, 0.0, 0.05, 0.0, 0.05, 0.0, 0.04, 0.0, 0.05, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.12, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.12, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.37, 0.0, 0.39, 0.0, 0.09, 0.0, 0.11, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.28, 0.0, 0.28, 0.0, 0.04, 0.0, 0.36, 0.0, 0.0, 0.0, 0.04, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.26, 0.0, 0.25, 0.0, 0.04, 0.0, 0.11, 0.0, 0.0, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.26, 0.0, 0.29, 0.0, 0.01, 0.0, 0.22, 0.0, 0.03, 0.0, 0.05, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.0, 0.16, 0.0, 0.02, 0.0, 0.09, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.06, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.0, 0.24, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.0, 0.05, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.06, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.76, 0.0, 0.54, 0.0, 0.12, 0.0, 0.34, 0.0, 0.03, 0.0, 0.08, 0.0, 0.01, 0.0, 0.18, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.0, 0.08, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.54, 0.0, 0.37, 0.0, 0.12, 0.0, 0.25, 0.0, 0.02, 0.0, 0.05, 0.0, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.0, 0.1, 0.0, 0.01, 0.0, 0.08, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.0, 0.13, 0.0, 0.01, 0.0, 0.06, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 66.49, 0.0, 17.34, 0.0, 4.24, 0.0, 16.7, 0.0, 1.05, 0.0, 0.96, 0.0, 0.49, 0.0, 3.72, 0.0, 0.33, 0.0, 0.16, 0.0, 0.12, 0.0, 0.22, 0.0, 0.12, 0.05, 0.11, 0.02, 0.08, 0.0, 0.63, 0.0, 0.07, 0.03, 0.01, 0.0, 0.03, 0.0, 0.26, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.09, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 16.1, 0.0, 31.08, 0.0, 2.85, 0.0, 8.81, 0.0, 0.91, 0.0, 1.28, 0.0, 0.39, 0.0, 3.86, 0.0, 0.28, 0.0, 0.31, 0.0, 0.08, 0.0, 0.26, 0.0, 0.1, 0.03, 0.1, 0.03, 0.06, 0.0, 0.43, 0.0, 0.02, 0.03, 0.06, 0.02, 0.03, 0.0, 0.35, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.09, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.77, 0.0, 2.91, 0.0, 3.88, 0.0, 2.07, 0.0, 0.28, 0.0, 0.32, 0.0, 0.11, 0.0, 1.17, 0.0, 0.06, 0.0, 0.12, 0.0, 0.03, 0.0, 0.13, 0.0, 0.07, 0.03, 0.04, 0.02, 0.02, 0.0, 0.26, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.13, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 17.04, 0.0, 7.53, 0.0, 2.15, 0.0, 13.53, 0.0, 0.74, 0.0, 0.87, 0.0, 0.19, 0.0, 2.73, 0.0, 0.14, 0.0, 0.29, 0.0, 0.11, 0.0, 0.26, 0.0, 0.07, 0.09, 0.06, 0.03, 0.04, 0.0, 0.45, 0.0, 0.08, 0.02, 0.04, 0.0, 0.02, 0.0, 0.28, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.11, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.1], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.18, 0.0, 0.82, 0.0, 0.28, 0.0, 0.68, 0.0, 0.1, 0.0, 0.12, 0.0, 0.02, 0.0, 0.13, 0.0, 0.04, 0.0, 0.02, 0.0, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.49, 0.0, 1.22, 0.0, 0.16, 0.0, 0.63, 0.0, 0.13, 0.0, 0.09, 0.0, 0.07, 0.0, 0.08, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.01, 0.02, 0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.59, 0.0, 0.3, 0.0, 0.08, 0.0, 0.17, 0.0, 0.04, 0.0, 0.08, 0.0, 0.04, 0.0, 0.14, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06, 3.89, 0.0, 3.7, 0.0, 1.21, 0.0, 2.59, 0.0, 0.18, 0.0, 0.14, 0.0, 0.14, 0.0, 3.35, 0.0, 0.14, 0.0, 0.05, 0.0, 0.03, 0.0, 0.04, 0.0, 0.01, 0.02, 0.02, 0.0, 0.01, 0.0, 0.19, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.45, 0.0, 0.15, 0.0, 0.06, 0.0, 0.19, 0.0, 0.03, 0.0, 0.02, 0.0, 0.01, 0.0, 0.1, 0.0, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.26, 0.0, 0.36, 0.0, 0.03, 0.0, 0.24, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.06, 0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.05, 0.0, 0.02, 0.0, 0.02, 0.01, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.0, 0.12, 0.0, 0.03, 0.0, 0.1, 0.0, 0.01, 0.0, 0.04, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.26, 0.0, 0.43, 0.0, 0.06, 0.0, 0.16, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.05, 0.0, 0.08, 0.0, 0.01, 0.0, 0.01, 0.02, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15, 0.0, 0.02, 0.0, 0.03, 0.0, 0.1, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.03, 0.0, 0.02, 0.0, 0.03, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.08, 0.0, 0.05, 0.0, 0.0, 0.0, 0.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.1, 0.0, 0.14, 0.0, 0.0, 0.0, 0.06, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.0, 0.06, 0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.65, 0.0, 0.48, 0.0, 0.13, 0.0, 0.39, 0.0, 0.04, 0.0, 0.06, 0.0, 0.04, 0.0, 0.25, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.0, 0.04, 0.0, 0.01, 0.0, 0.09, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.04, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.06, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.36, 0.0, 0.43, 0.0, 0.17, 0.0, 0.17, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.07, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13, 0.0, 0.07, 0.0, 0.03, 0.0, 0.07, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.03, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16, 0.0, 0.08, 0.0, 0.05, 0.0, 0.12, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.667225850694228</v>
+        <v>5.486394935656747</v>
       </c>
       <c r="C5" t="n">
-        <v>2.147812841008266</v>
+        <v>3.074589403481382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5657898814931211</v>
+        <v>0.6526551616282523</v>
       </c>
       <c r="E5" t="n">
-        <v>3.116087290176577</v>
+        <v>5.033676588737103</v>
       </c>
       <c r="F5" t="n">
-        <v>1.222177008456631</v>
+        <v>1.452383558155352</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02329356134213916</v>
+        <v>0.0236008474424119</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2800334801412145</v>
+        <v>0.3297176974322125</v>
       </c>
       <c r="I5" t="n">
-        <v>14.99478576039018</v>
+        <v>90.41869275763722</v>
       </c>
       <c r="J5" t="n">
-        <v>33.24156434345412</v>
+        <v>32.06177006966396</v>
       </c>
       <c r="K5" t="n">
-        <v>1.809010226615648</v>
+        <v>1.95763934114535</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8965525695685668</v>
+        <v>1.19388029550705</v>
       </c>
       <c r="M5" t="n">
-        <v>2.273335283234745</v>
+        <v>2.733879690110741</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[21.20819417112169, 18.95314221969539, 21.599469900902665, 22.37088286143397, 4.798697740012388, 5.526083604144983, 0.7911384202527394, 3.7830675383873325, 2.197157254271983, 2.876873302736845, 1.3268006632497582, 0.2861817604250837, 1.4148851543499923, 0.09949874371066196, 0.43772137256478627, 0.2764054992217047, 0.17058722109232002, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[20.636530716183863, 20.230916934237065, 24.082682574829576, 14.764023841758043, 4.879866801460876, 5.2599904942879885, 1.3789851340750567, 4.359082472264089, 1.59486676559517, 1.9123545696339892, 1.4453719244540488, 0.5758472019555192, 1.327365812427004, 0.1959591794226542, 0.5268775948927793, 0.28618176042508375, 0.2374868417407583, 0.27640549922170454, 0.09949874371066199, 0.3192177939902477, 0.13999999999999993, 0.1399999999999999, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.13999999999999993, 0.0, 0.17058722109231994, 0.0, 0.17058722109231964, 0.24166091947189114, 0.09949874371066195, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[18.035808825777675, 1.7917589123540016, 16.53349327879622, 10.055699876189621, 14.618737975625667, 11.35437801026547, 2.8047103237232855, 20.284230328015898, 1.3651373557265218, 23.03882592494678, 2.6550141242562146, 18.67653875856016]</t>
+          <t>[24.124228485072845, 29.724634564616597, 25.277460315466822, 24.737976877667258, 26.75962630531301, 25.729148839400033, 25.963405015521374, 32.21206451005585, 27.2511926344518, 28.521884580090425, 24.778367581420696, 29.10762099519643]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[15.394086526975228, 63.825386798671275, 82.27944822372109, 29.751665499598506, 40.599906403833, 4.6322672634467015, 9.756659264317886, 3.505124819460786, 6.437421844185762, 3.1981869864033894, 2.8318898283655036, 1.8409508412774092, 3.825911656063167, 1.2229472596968358, 1.6253922603482531, 2.0655265672462324, 3.1389647975088835, 0.5844655678480978, 0.5656854249492376, 0.3605551275463988, 0.5916079783099615, 0.276405499221705, 0.4616275555033515, 0.17058722109231994, 0.44766058571198786, 0.13999999999999987, 0.2917190429162963, 0.40926763859362275, 0.3919183588453078, 0.09949874371066195, 0.0, 0.0]</t>
+          <t>[10.448138590198733, 67.8283207812194, 73.3291210911463, 24.48729262290955, 28.218382306574558, 3.3990586932267, 8.209622403009774, 3.006725793949294, 6.145762767956474, 2.0938958904396365, 2.125464655081331, 1.9312949023906207, 4.569726468838154, 1.9729166226680739, 2.058616039964713, 0.8151073548925936, 10.445338673303036, 0.5708765190476834, 0.6062177826491068, 0.23748684174075838, 0.8199999999999997, 0.24166091947189144, 0.22158519806160304, 0.09949874371066199, 0.736478105580879, 0.19595917942265423, 0.19595917942265428, 0.13999999999999999, 0.25514701644346155, 0.09949874371066199, 0.1399999999999999, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.17058722109232, 86.29515108046337, 0.0, 66.99983283561237, 0.0, 27.664569398420078, 0.09949874371066196, 52.07094775400195, 0.0, 8.520393183415896, 0.09949874371066197, 10.204209915520167, 0.0, 3.0732881413886366, 0.0, 20.026629771381906, 0.0, 1.9983993594874883, 0.0, 2.5718475849085607, 0.0, 1.6332789106579437, 0.0, 1.5425952158618923, 0.0, 1.0089103032480142, 0.46162755550335144, 1.2343419299367582, 0.7578918128598565, 0.57227615711298, 0.0, 2.4753989577439848, 0.0, 0.25980762113533157, 0.1399999999999999, 0.5038849074937648, 0.13999999999999996, 0.3536947836765473, 0.0, 1.9972731410600801, 0.0, 0.13999999999999999, 0.22158519806160298, 0.37669616403674794, 0.25980762113533173, 0.09949874371066199, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.6666333324999587, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.7123903424387502]</t>
+          <t>[0.762299153875957, 82.03265447369115, 0.0, 67.06246043801255, 0.0, 27.61307480162252, 0.0, 40.67051020088142, 0.0, 5.019960159204456, 0.0, 6.672173558893685, 0.0, 2.67701326108034, 0.0, 22.96235832835992, 0.0, 2.068308487629444, 0.0, 2.511155112692164, 0.0, 1.9944673474389103, 0.0, 3.534345766899441, 0.0, 2.5039169315294787, 0.7262919523166975, 1.6267759526130208, 0.7172168430816428, 0.8928045698807769, 0.0, 3.4000000000000017, 0.0, 1.6544183267843728, 0.46679760067935255, 0.6324555320336758, 0.13999999999999987, 0.3316624790355398, 0.0, 1.63006134853876, 0.0, 0.17058722109231966, 0.13999999999999999, 0.19595917942265423, 0.09949874371066195, 0.09949874371066197, 0.0, 0.3411744421846397, 0.0, 0.09949874371066196, 0.1705872210923198, 0.412310562561766, 0.09949874371066196, 0.13999999999999993, 0.0, 0.6964912059746335, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.8659676668328901]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[10.719939365500162, 0.17058722109231972, 5.847555044631901, 0.8126499861564016, 2.9034462281915956, 1.0535179163165658, 0.09949874371066197, 3.052523546182732, 0.0, 7.264406376298066, 0.5494542747126456, 6.484473764308096], [0.13999999999999993, 0.3278719262150997, 0.3411744421846399, 0.8518215775618742, 0.13999999999999993, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999987, 0.34117444218463955, 0.0], [6.815416348250489, 0.365513337649941, 6.839999999999999, 0.614735715572147, 6.146543744251724, 0.8874119674649427, 0.4431703961232063, 2.097117068739845, 0.09949874371066193, 1.515618685553856, 0.22158519806160326, 2.1720036832381275], [0.27999999999999986, 0.9313968005098575, 0.8170067319184094, 6.629411738608488, 0.24166091947189125, 0.7249827584156749, 0.0, 0.17058722109231975, 0.24166091947189144, 0.13999999999999999, 0.5418486873657626, 0.13999999999999993], [2.3309011133036077, 0.09949874371066196, 7.072510162594325, 0.41665333311999275, 8.923429833869934, 4.784088209889111, 1.137497252743936, 6.767540173504698, 0.2215851980616031, 2.99417768343831, 0.09949874371066199, 1.1224972160321829], [0.6343500610861486, 0.0, 0.9301075206662935, 0.9134549797335388, 5.0944970311111195, 2.957887759871901, 0.09949874371066197, 2.740875772449383, 0.27640549922170504, 0.6560487786742694, 0.0, 0.13999999999999993], [0.0, 0.0, 0.13999999999999993, 0.0, 1.5692036196746433, 0.0, 0.5339475629684994, 0.31368774282716233, 0.09949874371066197, 0.24166091947189128, 0.09949874371066199, 0.09949874371066197], [2.558808316384797, 0.19899748742132392, 2.2869193252058544, 0.0, 6.772562292072329, 2.8623591668412245, 0.3278719262150997, 10.460994216612493, 0.17058722109231994, 8.951446810432374, 0.09949874371066196, 1.122497216032183], [0.13999999999999987, 0.0, 0.0, 0.09949874371066196, 0.1705872210923199, 0.40236799077461416, 0.0, 0.22158519806160304, 0.3536947836765474, 0.3491418050019223, 0.4092676385936226, 0.1399999999999999], [7.672515884636537, 0.13999999999999993, 1.76666352200978, 0.13999999999999993, 3.0811686094727118, 0.5851495535331122, 0.35707142142714227, 8.217414435210141, 0.39191835884530796, 12.102441902360034, 0.17058722109231975, 4.964836351784418], [0.4974937185533106, 0.0, 0.24166091947189125, 0.3693237062523878, 0.4092676385936226, 0.6042350536008316, 0.0, 0.09949874371066197, 0.4918333050943174, 0.09949874371066197, 0.5599999999999997, 0.09949874371066197], [6.594990523116771, 0.0, 1.596871942267132, 0.0, 1.29903810567666, 0.2179449471770336, 0.0, 1.9566297554724033, 0.0, 5.364848553314437, 0.13999999999999993, 6.104514722727764]]</t>
+          <t>[[9.310510190102372, 2.1871442567878336, 5.540902453571983, 3.065550521521377, 1.3057947771376641, 1.3067516979135712, 0.3605551275463987, 1.9893717601293122, 1.4455448799674129, 3.7175798579183206, 6.862441256579179, 5.145979012782701], [3.493579825909235, 12.781142358959931, 1.2745195173083854, 8.38889742457255, 3.093396191890068, 0.8349251463454664, 1.2666491226855197, 0.24166091947189114, 1.8709355948294957, 0.8724104538575864, 3.8169490434115074, 5.05548217284959], [6.250567974192426, 1.9566297554724057, 8.49861165132282, 2.9662097026339866, 8.316700066733201, 3.5969987489572457, 1.4035312607847388, 2.3404273114113163, 0.2598076211353321, 2.3394657509782, 0.8888194417315599, 4.808700448146047], [3.7206988590854806, 8.538448336788125, 3.1141451475485207, 7.669804430361971, 2.310216440076557, 6.217161731851607, 4.43931300991494, 1.6981166037701885, 1.133975308373158, 0.41999999999999965, 1.4146024176424967, 1.2255202976695259], [1.243985530462473, 2.6052830940226053, 8.449491108936675, 2.4994999499899975, 10.39434461618432, 2.30703272625249, 6.296626080687978, 5.248723654375416, 0.34914180500192193, 2.6572730382856786, 0.2917190429162964, 2.3042569301186875], [1.3700729907563338, 1.4154857823376399, 4.2880648315994465, 6.370745639248203, 2.352530552405218, 8.857601255418984, 2.2287889088022683, 8.178135484326482, 5.530596712833071, 0.6760917097554151, 1.4309088021254182, 0.31921779399024763], [0.2917190429162964, 1.7244999275152193, 1.9067249408344176, 4.2455152808581404, 6.671911270393218, 2.9048063618768127, 9.727666729488629, 3.1444395367060247, 6.604929976918754, 3.604164258188026, 0.949262871916942, 1.6733200530681511], [2.003471986327735, 0.3872983346207415, 1.7265862272125307, 2.0486825034641147, 6.091797764207213, 8.99672718270372, 3.3600446425605717, 14.399204839156923, 5.606103816377287, 7.305094113014563, 4.64511571438215, 1.8234856730997355], [1.2688577540449522, 1.7117242768623693, 0.0, 1.734214519602463, 0.955196314900764, 5.016133969502807, 6.847072367077771, 5.866949803773679, 8.795089539055304, 1.2265398485169574, 7.441632885328333, 3.787664187860376], [3.252322247256567, 0.9937303457175896, 2.727196362567243, 0.276405499221705, 2.033617466486754, 1.0246950765959608, 3.954984197187139, 8.408775178347911, 1.9209112420931875, 10.388243354869966, 1.5198684153570663, 8.47747014149859], [6.1335144900782606, 3.702688212636867, 1.1683749398202616, 1.5420440979427283, 0.27640549922170454, 1.4654692081377905, 0.9171150418568005, 4.424070523850179, 7.637087141050575, 1.833330303027799, 7.747025235533963, 3.5169731304063143], [4.368191845603853, 4.850773134253959, 4.2049494646190455, 1.2196310917650466, 2.0018741219167597, 0.1705872210923198, 2.0072618165052614, 1.6001249951175684, 4.3158313220050655, 9.767927108655144, 3.3582584772467987, 12.667987211865976]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 74.8329947282614, 0.0, 13.891810537147418, 0.0, 5.725897309592619, 0.09949874371066196, 16.378433991074974, 0.0, 3.6779749863205953, 0.09949874371066197, 1.732599203508995, 0.0, 1.5269577597301096, 0.0, 5.91164105811576, 0.0, 0.7901898506055368, 0.0, 0.5708765190476834, 0.0, 0.4555216789572153, 0.0, 0.5723635208501678, 0.0, 0.563826214360418, 0.24166091947189147, 0.276405499221705, 0.39799497484264795, 0.24166091947189147, 0.0, 1.3479985163196584, 0.0, 0.24166091947189147, 0.0, 0.13999999999999999, 0.09949874371066199, 0.09949874371066196, 0.0, 1.0304853225543775, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2374868417407583, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.3536947836765477], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 13.347939915957072, 0.0, 52.827170092671054, 0.0, 4.566607055572005, 0.0, 11.94267976628361, 0.0, 2.587102626491649, 0.0, 6.123528394643076, 0.0, 1.081619156635088, 0.0, 5.423753312974328, 0.0, 0.9260669522232189, 0.0, 1.2735383779062177, 0.0, 1.0793979803575693, 0.0, 0.8231646250902681, 0.0, 0.4974937185533104, 0.259807621135332, 0.6737210105080588, 0.2416609194718915, 0.27640549922170493, 0.0, 1.0886229834061008, 0.0, 0.0, 0.1399999999999999, 0.2917190429162965, 0.0, 0.2984962311319857, 0.0, 0.8765842800324452, 0.0, 0.0, 0.19899748742132392, 0.25980762113533207, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.41231056256176596, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.37669616403674716], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 5.3655475023523955, 0.0, 4.115082016193602, 0.0, 19.479733057719244, 0.0, 3.1875382350647987, 0.0, 0.7649182962905249, 0.0, 0.7359347797189646, 0.0, 0.31288975694324056, 0.0, 2.380651171423484, 0.0, 0.5225897052181566, 0.0, 0.27640549922170465, 0.0, 0.2374868417407582, 0.0, 0.23748684174075826, 0.0, 0.13999999999999987, 0.09949874371066195, 0.09949874371066199, 0.298496231131986, 0.09949874371066195, 0.0, 0.3544009029333872, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.4264973622427222, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 16.182632665916877, 0.0, 12.08295907466379, 0.0, 2.9530323398161435, 0.0, 38.602667006309254, 0.0, 1.3393655214316977, 0.0, 2.4576411454889016, 0.0, 0.8815327560561784, 0.0, 3.919834180166301, 0.0, 0.4330127018922199, 0.0, 0.9021640649017236, 0.0, 0.27129319932501095, 0.0, 0.5881326381013047, 0.0, 0.23748684174075824, 0.22158519806160287, 0.3536947836765469, 0.21794494717703405, 0.09949874371066199, 0.0, 0.730136973450872, 0.0, 0.0, 0.0, 0.21794494717703375, 0.0, 0.0, 0.0, 0.5722761571129799, 0.0, 0.09949874371066199, 0.09949874371066193, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.37669616403674794, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.28618176042508353], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.467261166973149, 0.0, 2.367614833540287, 0.0, 1.0359054010864108, 0.0, 1.5703184390434948, 0.0, 1.7022338264762544, 0.0, 0.5660388679233965, 0.0, 0.09949874371066195, 0.0, 1.0205880657738466, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.2416609194718911, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.2050850323740345, 0.0, 4.824271965799605, 0.0, 0.8255906976220124, 0.0, 3.0995967479657733, 0.0, 0.46679760067935244, 0.0, 1.4613692209705247, 0.0, 0.22158519806160334, 0.0, 0.6140846847137619, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.19595917942265412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.29171904291629625, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.5990934932016936, 0.0, 1.1947803145348523, 0.0, 0.3128897569432405, 0.0, 0.5722761571129799, 0.0, 0.27640549922170454, 0.0, 0.24166091947189117, 0.0, 0.0, 0.0, 0.4534313619501852, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 5.978494793842346, 0.0, 5.5308227236099325, 0.0, 2.0052680618810013, 0.0, 3.8058376213390916, 0.0, 1.2796874618437089, 0.0, 0.8704022058795589, 0.0, 0.42649736224272244, 0.0, 8.190695941127348, 0.0, 0.21794494717703358, 0.0, 0.3278719262150994, 0.0, 0.1959591794226542, 0.0, 0.3278719262150994, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.38157568056677843, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.13999999999999996, 0.0, 0.40693979898751625, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19595917942265415], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9555626614722862, 0.0, 1.130442391278743, 0.0, 0.31921779399024797, 0.0, 0.3433656942677881, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.2984962311319856, 0.0, 0.22158519806160334, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1989974874213239, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7626270385975054, 0.0, 0.9703607576566566, 0.0, 0.19595917942265428, 0.0, 1.3965672200076862, 0.0, 0.0, 0.0, 0.24166091947189125, 0.0, 0.13999999999999987, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.22158519806160293, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5023942674832185, 0.0, 0.8046738469715541, 0.0, 0.24166091947189144, 0.0, 0.39736632972611075, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.17058722109231986, 0.0, 0.09949874371066196, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5936328831862328, 0.0, 0.8036790404135221, 0.0, 0.09949874371066196, 0.0, 0.5211525688318158, 0.0, 0.17058722109232002, 0.0, 0.21794494717703375, 0.0, 0.0, 0.0, 0.2598076211353321, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2861817604250837, 0.0, 0.7031358332498776, 0.0, 0.19899748742132398, 0.0, 0.3491418050019218, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.27640549922170465, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4493328387732196, 0.0, 0.8499411744350314, 0.0, 0.0, 0.0, 0.24166091947189153, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.39799497484264795, 0.0, 0.21794494717703358, 0.0, 0.19899748742132398, 0.0, 0.17058722109232005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22158519806160334, 0.0, 0.2764054992217049, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.3646977687385584, 0.0, 1.0622617379911605, 0.0, 0.3249615361854386, 0.0, 0.8151073548925936, 0.0, 0.17058722109231975, 0.0, 0.3655133376499405, 0.0, 0.09949874371066199, 0.0, 0.6384355879804945, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1959591794226539, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19595917942265428, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.24166091947189147, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1959591794226542, 0.0, 0.33704599092705423, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1399999999999999, 0.0, 0.1399999999999999, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.0622617379911603, 0.0, 0.7437069315261221, 0.0, 0.40693979898751614, 0.0, 0.7533259586659682, 0.0, 0.13999999999999987, 0.0, 0.217944947177034, 0.0, 0.13999999999999987, 0.0, 0.22158519806160326, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999999, 0.0, 0.3136877428271622, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3815756805667784, 0.0, 0.3872983346207416, 0.0, 0.09949874371066195, 0.0, 0.3655133376499405, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2598076211353317, 0.0, 0.3912799509302768, 0.0, 0.09949874371066196, 0.0, 0.2374868417407581, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.24166091947189114, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.0, 0.0, 0.0, 0.13999999999999999, 0.0, 0.13999999999999999, 0.0, 0.17058722109231983, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.4974937185533102, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19595917942265423, 69.49870430446889, 0.0, 15.82985786417553, 0.0, 5.706347343090854, 0.0, 18.829498134575967, 0.0, 1.5058220346375593, 0.0, 1.760227258055051, 0.0, 0.9538867857350779, 0.0, 4.7520101009993665, 0.0, 0.735594997264119, 0.0, 0.4409081537009727, 0.0, 0.38157568056677843, 0.0, 0.6257795138864809, 0.0, 0.6368673331236273, 0.2958039891549806, 0.3973663297261107, 0.13999999999999987, 0.43999999999999934, 0.0, 1.016415269464209, 0.0, 0.3809199390948175, 0.2215851980616028, 0.09949874371066199, 0.0, 0.1705872210923198, 0.0, 0.5219195340279953, 0.0, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066197, 0.0, 0.28618176042508386, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.37134889255254305], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 14.561936684383705, 0.0, 54.90968584867337, 0.0, 5.154367080447412, 0.0, 9.080412986202774, 0.0, 1.8389942903663425, 0.0, 3.432433539050688, 0.0, 1.057307902174197, 0.0, 6.916675502002392, 0.0, 0.722218803410712, 0.0, 0.7706490770772387, 0.0, 0.30594117081556693, 0.0, 0.8674099376880572, 0.0, 0.36055512754639873, 0.17058722109231977, 0.38729833462074165, 0.2215851980616032, 0.23748684174075824, 0.0, 0.8746999485537881, 0.0, 0.13999999999999999, 0.17058722109231977, 0.2764054992217051, 0.13999999999999987, 0.17058722109231975, 0.0, 0.6383572667401853, 0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.28618176042508364, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.36482872693909374], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 4.8246347011975965, 0.0, 5.949949579618302, 0.0, 14.174822750214558, 0.0, 3.639381815638477, 0.0, 0.8133879763065106, 0.0, 1.2874781551544856, 0.0, 0.44485952839070464, 0.0, 2.705753129906721, 0.0, 0.34117444218464005, 0.0, 0.38157568056677843, 0.0, 0.17058722109231989, 0.0, 0.5030904491242106, 0.0, 0.4302324952859784, 0.17058722109231986, 0.1959591794226541, 0.1399999999999999, 0.13999999999999987, 0.0, 0.878862901708793, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.577148161220323, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.17058722109231994, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2917190429162964], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2416609194718914, 19.3891309758844, 0.0, 8.952602973437388, 0.0, 4.003436024217196, 0.0, 24.557872464853297, 0.0, 1.9830279876996184, 0.0, 2.7664236841091387, 0.0, 0.4170131892398609, 0.0, 4.440394126651372, 0.0, 0.447660585711988, 0.0, 0.816026960338934, 0.0, 0.44485952839070464, 0.0, 0.7952358140828416, 0.0, 0.5148786264742394, 0.2861817604250837, 0.3104834939252004, 0.22158519806160348, 0.195959179422654, 0.0, 0.931396800509858, 0.0, 0.6112282715974446, 0.13999999999999987, 0.24166091947189114, 0.0, 0.13999999999999987, 0.0, 0.5491812087098389, 0.0, 0.13999999999999987, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.3433656942677881, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.3316624790355398], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.6755894485225198, 0.0, 1.7685021911210632, 0.0, 0.8611620056644393, 0.0, 2.039019372149269, 0.0, 0.38729833462074154, 0.0, 0.49558046773455394, 0.0, 0.13999999999999987, 0.0, 0.4394314508543964, 0.0, 0.24166091947189144, 0.0, 0.13999999999999993, 0.0, 0.13999999999999985, 0.0, 0.2215851980616033, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.2764054992217047, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.17058722109231997, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.479899191499525, 0.0, 3.7432071810146943, 0.0, 0.7964923100695949, 0.0, 2.633078046697434, 0.0, 0.4394314508543964, 0.0, 0.34914180500192227, 0.0, 0.3536947836765472, 0.0, 0.27129319932501095, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.09949874371066199, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.3136877428271622, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19595917942265417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.2007914056987583, 0.0, 0.6082762530298224, 0.0, 0.27129319932501095, 0.0, 0.4013726448077897, 0.0, 0.2416609194718914, 0.0, 0.33704599092705423, 0.0, 0.2416609194718912, 0.0, 0.5295280917949493, 0.0, 0.19899748742132392, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19595917942265403, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4431703961232068, 4.677381746233678, 0.0, 6.679071791798616, 0.0, 3.118637523021873, 0.0, 4.209738709231251, 0.0, 0.45563142999578093, 0.0, 0.400499687890016, 0.0, 0.42473521163190625, 0.0, 10.237553418664053, 0.0, 0.5102940328869232, 0.0, 0.21794494717703367, 0.0, 0.17058722109231986, 0.0, 0.19595917942265415, 0.0, 0.09949874371066199, 0.19899748742132392, 0.13999999999999993, 0.0, 0.09949874371066196, 0.0, 0.8209141246196227, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.25980762113533196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.19595917942265398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.9630680142129111, 0.0, 0.35707142142714293, 0.0, 0.27640549922170465, 0.0, 0.5602677931132579, 0.0, 0.221585198061603, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.5567764362830031, 0.0, 0.09949874371066199, 0.0, 0.13999999999999993, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6873136110975828, 0.0, 0.9002221947941518, 0.0, 0.17058722109231972, 0.0, 0.5678027826631359, 0.0, 0.09949874371066199, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.27640549922170476, 0.0, 0.09949874371066195, 0.0, 0.24166091947189144, 0.0, 0.0, 0.0, 0.25980762113533157, 0.0, 0.13999999999999987, 0.0, 0.19899748742132398, 0.09949874371066195, 0.0, 0.0, 0.13999999999999985, 0.0, 0.13999999999999996, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3815756805667785, 0.0, 0.35440090293338716, 0.0, 0.22158519806160334, 0.0, 0.4582575694955852, 0.0, 0.09949874371066199, 0.0, 0.24166091947189144, 0.0, 0.09949874371066199, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.19899748742132398, 0.0, 0.19899748742132398, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.19899748742132398, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.8199999999999998, 0.0, 1.1511298797268705, 0.0, 0.3104834939252007, 0.0, 0.6740919818541087, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.298496231131986, 0.0, 0.3278719262150999, 0.0, 0.611228271597445, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.19899748742132398, 0.09949874371066193, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5894913061275802, 0.0, 0.13999999999999996, 0.0, 0.17058722109231989, 0.0, 0.8062257748298551, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.2215851980616035, 0.0, 0.19899748742132398, 0.0, 0.22158519806160326, 0.0, 0.09949874371066199, 0.1989974874213239, 0.0, 0.0, 0.0, 0.0, 0.1989974874213239, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.27129319932501084, 0.0, 0.2179449471770336, 0.0, 0.0, 0.0, 0.34117444218464016, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.24166091947189128, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.33166247903553975, 0.0, 0.5102940328869229, 0.0, 0.0, 0.0, 0.3104834939252004, 0.0, 0.19899748742132398, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22158519806160326, 0.0, 0.09949874371066199, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1705872210923198, 0.0, 0.17058722109231989, 0.0, 0.0, 0.0, 0.443170396123207, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.37669616403674794, 0.0, 0.23748684174075826, 0.0, 0.09949874371066196, 0.0, 0.3278719262150995, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.061838029079765, 0.0, 0.9108238029388568, 0.0, 0.5030904491242105, 0.0, 1.028542658327793, 0.0, 0.24166091947189125, 0.0, 0.27640549922170465, 0.0, 0.39799497484264784, 0.0, 0.653834841531101, 0.0, 0.09949874371066196, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.09949874371066199, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2416609194718912, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2598076211353321, 0.0, 0.24166091947189142, 0.0, 0.09949874371066195, 0.0, 0.7084490101623399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.1989974874213239, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.1959591794226539, 0.0, 0.17058722109231994, 0.0, 0.0, 0.0, 0.1989974874213239, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1705872210923198, 0.0, 0.23748684174075835, 0.0, 0.0, 0.0, 0.22158519806160334, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999987, 0.0, 0.17058722109231977, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6711184694225012, 0.0, 0.7246378405796924, 0.0, 0.8006872048434392, 0.0, 0.42555845661906444, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.2917190429162964, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1705872210923197, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3648287269390937, 0.0, 0.2551470164434616, 0.0, 0.17058722109232, 0.0, 0.29171904291629625, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.19595917942265398, 0.0, 0.0, 0.0, 0.1705872210923198, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.48414873747640863, 0.0, 0.30594117081556693, 0.0, 0.259807621135332, 0.0, 0.4955804677345535, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.17058722109231966, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132398, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003572942507923954</v>
+        <v>0.007866182190658471</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4078438629844829</v>
+        <v>0.4655154199563596</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02413026466924293</v>
+        <v>0.004101979498567988</v>
       </c>
       <c r="E6" t="n">
-        <v>0.51660735465235</v>
+        <v>0.5500405931243818</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01103495650086679</v>
+        <v>0.001376014961218358</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9648206912262398</v>
+        <v>1.061939447860489</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006289729993091591</v>
+        <v>0.0004860708162744948</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06764168990355976</v>
+        <v>0.004455381350371827</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02713429344411473</v>
+        <v>0.03162414213102681</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02205360912509772</v>
+        <v>0.004501186890543506</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004231475907281666</v>
+        <v>0.00870496499202047</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003973206407464171</v>
+        <v>0.0123361609031064</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05829660610982187</v>
+        <v>0.05249950974766577</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06056292756309405</v>
+        <v>0.005748758483823543</v>
       </c>
       <c r="P6" t="n">
-        <v>0.008341089075159952</v>
+        <v>0.01786213523176046</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01375008364297891</v>
+        <v>0.0109344521314501</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8050207719244331</v>
+        <v>0.2622128916700945</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03750237255138401</v>
+        <v>0.0418973182977273</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9643485823951123</v>
+        <v>0.9483863645983689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7840559752392251</v>
+        <v>0.6311448090265573</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9699710317690348</v>
+        <v>0.9617095858129738</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6723102473031489</v>
+        <v>0.5465548256925941</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9594225002932252</v>
+        <v>0.9697007957656899</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7098412144522759</v>
+        <v>0.7251194284349504</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9104126674422388</v>
+        <v>0.9551683061789245</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5919381678982113</v>
+        <v>0.9474363488704501</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9346807344566488</v>
+        <v>0.9438467899728818</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9263629756209067</v>
+        <v>0.8862385565857921</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9496458093283178</v>
+        <v>0.9321387378090195</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9516489209375912</v>
+        <v>0.9389615453734023</v>
       </c>
       <c r="N7" t="n">
-        <v>0.839114396305267</v>
+        <v>0.8300633403053026</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8979736597342308</v>
+        <v>0.9145167911698233</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9642179020085995</v>
+        <v>0.9294389900313816</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9807451903699221</v>
+        <v>0.9800353092819869</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7656935824520166</v>
+        <v>0.839906323247893</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9546574251109696</v>
+        <v>0.9672603807520436</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005009644817863658</v>
+        <v>0.006172449563641151</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198529974364185</v>
+        <v>0.02803360788308908</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1177127986970061</v>
+        <v>0.002398113152760909</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07980820380570434</v>
+        <v>0.0387678961968055</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06663454566387197</v>
+        <v>0.00506534586913418</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5025637601952448</v>
+        <v>0.6542682899447321</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06691569328276732</v>
+        <v>0.001968008430604288</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1396161388388778</v>
+        <v>1.453648448157789</v>
       </c>
       <c r="J8" t="n">
-        <v>2.447590639490208</v>
+        <v>1.921070131287937</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04602888000793844</v>
+        <v>0.005359274369622656</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4431392802452562</v>
+        <v>0.0129044009871937</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3229568610910323</v>
+        <v>0.07077032595918807</v>
       </c>
       <c r="N8" t="n">
-        <v>1.272543780948449</v>
+        <v>1.030903100532362</v>
       </c>
       <c r="O8" t="n">
-        <v>1.599261137661119</v>
+        <v>2.389326211483117</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8922676693935783</v>
+        <v>0.7793732327741997</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.273448122800537</v>
+        <v>0.2472238165095746</v>
       </c>
       <c r="R8" t="n">
-        <v>1.223280986832679</v>
+        <v>3.948263089786291</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3239316151627169</v>
+        <v>0.2528029668104892</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9566152299874273</v>
+        <v>0.9413038201828681</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7971188648850046</v>
+        <v>0.8592281258376498</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9486182451333581</v>
+        <v>0.9421975221742935</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8473572190557843</v>
+        <v>0.8871486456259638</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9468996615843835</v>
+        <v>0.9523566786287253</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7713902480634758</v>
+        <v>0.7672835418524202</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8657324900298591</v>
+        <v>0.8754287643613959</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5177589835602646</v>
+        <v>0.9205824183852075</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6470673330535189</v>
+        <v>0.6135394461427276</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9311050484908924</v>
+        <v>0.9341970283927508</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9455840306682513</v>
+        <v>0.9155181647337377</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9427076604679178</v>
+        <v>0.92921964376213</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6931808950010561</v>
+        <v>0.6557609553629911</v>
       </c>
       <c r="O9" t="n">
-        <v>0.829100333673182</v>
+        <v>0.8908412913702787</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9440124650100914</v>
+        <v>0.8943823447088259</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9488416174701746</v>
+        <v>0.9493789091159597</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6944565974704489</v>
+        <v>0.8146489502509274</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9568377173106672</v>
+        <v>0.9558194084148227</v>
       </c>
     </row>
   </sheetData>
